--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_zyc_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_zyc_hotfix.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9017860-77C1-40A5-8E14-BFD05F9FDB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="2" r:id="rId4"/>
+    <sheet name="main" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="594">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -208,7 +214,7 @@
     <t>Tasha</t>
   </si>
   <si>
-    <t xml:space="preserve">attached_script:无尽城地城_洛维莎
+    <t>attached_script:无尽城地城_洛维莎
 Voice:NpcVoice.luoweisha
 BattleVoice:BattleVoice.luoweisha</t>
   </si>
@@ -384,11 +390,11 @@
     <t>Statue</t>
   </si>
   <si>
-    <t xml:space="preserve">默认:眼前的雕像散发着暗淡的光芒。
+    <t>默认:眼前的雕像散发着暗淡的光芒。
 故事礼物错误:好像不是这个。</t>
   </si>
   <si>
-    <t xml:space="preserve">默认:The statue in front of me glows with a dim light.
+    <t>默认:The statue in front of me glows with a dim light.
 故事礼物错误:Doesn't seem to be this one.</t>
   </si>
   <si>
@@ -1208,12 +1214,12 @@
     <t>Alaf Jahim</t>
   </si>
   <si>
-    <t xml:space="preserve">Desc:赫连千百十几岁便来到了大沙漠做商队护卫谋生，时至今日，他已经成为了沙漠里大有名气的雇佣护卫。他护送过的商队不计其数，击退的劫匪也不胜枚举。可英雄迟暮，已经年过六十的赫连千百不如年轻时健壮有活力，渐渐的也不太能胜任一些艰巨的护送任务，但他的名字仍能够震慑盗匪，他仍是沙漠中的传奇人物。
+    <t>Desc:赫连千百十几岁便来到了大沙漠做商队护卫谋生，时至今日，他已经成为了沙漠里大有名气的雇佣护卫。他护送过的商队不计其数，击退的劫匪也不胜枚举。可英雄迟暮，已经年过六十的赫连千百不如年轻时健壮有活力，渐渐的也不太能胜任一些艰巨的护送任务，但他的名字仍能够震慑盗匪，他仍是沙漠中的传奇人物。
 Voice:NpcVoice.helianqianbai
 BattleVoice:BattleVoice.helianqianbai</t>
   </si>
   <si>
-    <t xml:space="preserve">Desc:Alaf Jahim was a mere youth when he came to the Great Desert to earn his living as a caravan escort. Today, he is well renowned as muscle for hire. He has escorted too many travelers to count; the bandits he's defeated too numerous to mention. But time has not spared this hero. Alaf Jahim is now over 60 years old and isn't as energetic as he was in his youth. The more difficult escorting tasks are slowly moving beyond his grasp, but his name still strikes fear in the hearts of bandits. His legendary status amongst the sands remains.
+    <t>Desc:Alaf Jahim was a mere youth when he came to the Great Desert to earn his living as a caravan escort. Today, he is well renowned as muscle for hire. He has escorted too many travelers to count; the bandits he's defeated too numerous to mention. But time has not spared this hero. Alaf Jahim is now over 60 years old and isn't as energetic as he was in his youth. The more difficult escorting tasks are slowly moving beyond his grasp, but his name still strikes fear in the hearts of bandits. His legendary status amongst the sands remains.
 Voice:NpcVoice.helianqianbai
 BattleVoice:BattleVoice.helianqianbai</t>
   </si>
@@ -1287,7 +1293,7 @@
     <t>剧情耶牙</t>
   </si>
   <si>
-    <t xml:space="preserve">Voice:NpcVoice.yeya
+    <t>Voice:NpcVoice.yeya
 BattleVoice:BattleVoice.yeya</t>
   </si>
   <si>
@@ -1504,7 +1510,7 @@
     <t>Umara</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:我喜欢&lt;color=red&gt;音乐&lt;/color&gt;、或者是一些&lt;color=red&gt;忧伤&lt;/color&gt;或是&lt;color=red&gt;浪漫&lt;/color&gt;的东西。对于舞者来说，情绪是一件很重要的东西。
+    <t>喜欢的礼物:我喜欢&lt;color=red&gt;音乐&lt;/color&gt;、或者是一些&lt;color=red&gt;忧伤&lt;/color&gt;或是&lt;color=red&gt;浪漫&lt;/color&gt;的东西。对于舞者来说，情绪是一件很重要的东西。
 hello:我喜欢跳舞~总有一天我要站到骆驼城最大的舞台上。
 refuse_recruit_0:说实话，我真的很喜欢和你相处，但是……现在我还是更想奔向我的梦想之地。
 refuse_recruit_1:希云娜喜欢跳舞，至于打架么……抱歉了呢。
@@ -1513,7 +1519,7 @@
 recruit_msg:你值得我追随，走吧，以后请多多指教了。</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:I like &lt;color=red&gt;music&lt;/color&gt; and a few &lt;color=red&gt;sad&lt;/color&gt; or &lt;color=red&gt;romantic&lt;/color&gt; things. Emotions are very important to a dancer.
+    <t>喜欢的礼物:I like &lt;color=red&gt;music&lt;/color&gt; and a few &lt;color=red&gt;sad&lt;/color&gt; or &lt;color=red&gt;romantic&lt;/color&gt; things. Emotions are very important to a dancer.
 hello:I like to dance~ One day I will dance on the great stage of Jamal City.
 refuse_recruit_0:I think we really get along, but... I won't give up my dream for you.
 refuse_recruit_1:I like to dance. If you want me to fight... I'm sorry.
@@ -1522,13 +1528,13 @@
 recruit_msg:You are worth following. Let's go, I hope you will advise me in the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:音乐|浪漫|忧伤
+    <t>Like:音乐|浪漫|忧伤
 Desc:她常常在河边起舞，水中的倒影是她唯一的观众。成为一名王家级别的舞者是希云娜从小的梦想。在旧王朝覆灭后，雄鹰部落占领了王都骆驼城，但战争没有结束，纷争仍在继续，骆驼城一直以来都处于高度警戒状态，没有通行证的希云娜连骆驼城城内的模样都无从知晓。希云娜一直在努力练习着，她梦想着有一天能够加入骆驼城内最著名的歌舞团，学习更加专业的舞技，站上最广的表演舞台，让台下的观众们从她的舞蹈中能够收获幸福感。
 Voice:NpcVoice.xiyunna
 BattleVoice:BattleVoice.xiyunna</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:音乐|浪漫|忧伤
+    <t>Like:音乐|浪漫|忧伤
 Desc:She often dances by the river, her reflection in the river is her only audience. Ever since she was a girl, Umara dreamed of becoming a royal dancer. When the old king was toppled, the Nasir occupied Jamal City, the old capital. When the war didn't end and the fighting continued, Jamal City continued to be on constant alert. Umara didn't even know what Jamal City looked like, nor did she have the papers to go there. Still, Umara practices every day so that she can join the most famous group of entertainers in the city and become a professional dancer. When she stands on the greatest stage in the land, the audience beneath her will know the greatest happiness.
 Voice:NpcVoice.xiyunna
 BattleVoice:BattleVoice.xiyunna</t>
@@ -1570,7 +1576,7 @@
     <t>Mathali</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:一些&lt;color=red&gt;忧伤&lt;/color&gt;的东西能和我的灵魂产生共鸣。除此之外，我也希望能够找到一些&lt;color=red&gt;特殊的装备&lt;/color&gt;，能帮助我提升战力。
+    <t>喜欢的礼物:一些&lt;color=red&gt;忧伤&lt;/color&gt;的东西能和我的灵魂产生共鸣。除此之外，我也希望能够找到一些&lt;color=red&gt;特殊的装备&lt;/color&gt;，能帮助我提升战力。
 hello:有我在，御气术不会消失的。
 refuse_recruit_0:你知道我背负着什么，恕我无法答应。
 refuse_recruit_1:你不是我欣赏的那类。
@@ -1579,7 +1585,7 @@
 recruit_msg:好吧，希望你能帮我让御气术名扬天下。</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:A few &lt;color=red&gt;sad&lt;/color&gt; things resonate with my soul. Aside from that, I hope to come across some &lt;color=red&gt;special gear&lt;/color&gt; to assist me in battle.
+    <t>喜欢的礼物:A few &lt;color=red&gt;sad&lt;/color&gt; things resonate with my soul. Aside from that, I hope to come across some &lt;color=red&gt;special gear&lt;/color&gt; to assist me in battle.
 hello:My family's fighting style will never die so long as I'm around.
 refuse_recruit_0:You know I bear a heavy responsibility. I cannot accept.
 refuse_recruit_1:You're not the kind of person I admire.
@@ -1588,13 +1594,13 @@
 recruit_msg:Fine. I hope you can introduce my fighting style to the whole world.</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:特殊装备|忧伤
+    <t>Like:特殊装备|忧伤
 Desc:韩靖出生于武道世家，他们家族的人御气为力，以气为刃。战争时代，擅长单人作战的韩靖一家渐渐不受重视，家中不少人不得已转了行，御气之法濒临失传。韩靖是他这一辈唯一学会御气的年轻人，他的肩上背负着的不仅仅是重振家族荣耀的重担，还有将御气术传承下去的使命。
 Voice:NpcVoice.hanjing
 BattleVoice:BattleVoice.hanjing</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:特殊装备|忧伤
+    <t>Like:特殊装备|忧伤
 Desc: Mathali was born in a family steeped in warcraft. Members of the family could use mana to empower their blades. When the war began, Mathali's family, who only excelled in duels, were ignored. Many members of the family had to find new careers. Their unique fighting techniques were on the verge of being lost forever. Mathali is the only youth in his generation who has learned how to use mana to fight. On his shoulders rest not only the burden of reviving the family's glory, but also the mission of passing on these secret arts.
 Voice:NpcVoice.hanjing
 BattleVoice:BattleVoice.hanjing</t>
@@ -1636,7 +1642,7 @@
     <t>Sanjay</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:我喜欢人们的痛苦和&lt;color=red&gt;悲伤&lt;/color&gt;，也喜欢能留住时间的&lt;color=red&gt;画卷&lt;/color&gt;。
+    <t>喜欢的礼物:我喜欢人们的痛苦和&lt;color=red&gt;悲伤&lt;/color&gt;，也喜欢能留住时间的&lt;color=red&gt;画卷&lt;/color&gt;。
 hello:我喜欢你们悲伤的表情……
 refuse_recruit_0:嘿，你还差那么一点儿。
 refuse_recruit_1:啊……你还不足以让我点头。
@@ -1645,7 +1651,7 @@
 recruit_msg:希望你能带领我收获更多的痛苦与消亡。</t>
   </si>
   <si>
-    <t xml:space="preserve">喜欢的礼物:I like it when people are &lt;color=red&gt;sad and in pain&lt;/color&gt;. I also like to spend time looking at &lt;color=red&gt;paintings&lt;/color&gt;.
+    <t>喜欢的礼物:I like it when people are &lt;color=red&gt;sad and in pain&lt;/color&gt;. I also like to spend time looking at &lt;color=red&gt;paintings&lt;/color&gt;.
 hello:I like your morose expression...
 refuse_recruit_0:Hey, you're not quite there yet.
 refuse_recruit_1:Ah... it's still not enough to make me bend the knee.
@@ -1654,7 +1660,7 @@
 recruit_msg:I hope you can help me reap more pain and suffering.</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:绘画|忧伤
+    <t>Like:绘画|忧伤
 WildMonsterKiller:1
 Robber:100
 Desc:萨加是来自河那边的巫师。他来到这片大陆的目的是为了完成他的血腥研究——从战乱中汲取巫术之力，利用人类的负面情感和生命的痛苦和消亡来获得养分。
@@ -1662,7 +1668,7 @@
 BattleVoice:BattleVoice.sajia</t>
   </si>
   <si>
-    <t xml:space="preserve">Like:绘画|忧伤
+    <t>Like:绘画|忧伤
 WildMonsterKiller:1
 Robber:100
 Desc:Sanjay is a wizard from beyond the river. He came to this land for some gruesome research - how to draw arcane power from the chaos of war, turning pain and tragedy into sustenance.
@@ -1820,7 +1826,7 @@
     <t>Tavern Tyrant</t>
   </si>
   <si>
-    <t xml:space="preserve">fight_skills:冲刺重拳|丢酒瓶|踩脚指|蓄力冲刺
+    <t>fight_skills:冲刺重拳|丢酒瓶|踩脚指|蓄力冲刺
 fight_dgskill:直拳,1
 SYNC_PLAYER_LEVEL:1
 Fighter:1
@@ -1833,7 +1839,7 @@
     <t>Tavern Rogue</t>
   </si>
   <si>
-    <t xml:space="preserve">fight_skills:膝盖顶|丢酒瓶|踩脚指|饮酒
+    <t>fight_skills:膝盖顶|丢酒瓶|踩脚指|饮酒
 fight_dgskill:刺拳,1
 SYNC_PLAYER_LEVEL:1
 Fighter:1
@@ -1846,7 +1852,7 @@
     <t>Tavern Hero</t>
   </si>
   <si>
-    <t xml:space="preserve">fight_skills:飞腿|吼叫|饮酒
+    <t>fight_skills:飞腿|吼叫|饮酒
 fight_dgskill:直拳,1
 SYNC_PLAYER_LEVEL:1
 Fighter:1
@@ -1862,35 +1868,29 @@
     <t>副本洛维莎</t>
   </si>
   <si>
-    <t xml:space="preserve">attached_script:雇佣兵_挂载
+    <t>attached_script:雇佣兵_挂载
 BattleVoice:BattleVoice.luoweisha</t>
   </si>
   <si>
     <t>阿拉尔山树人雇佣兵</t>
   </si>
   <si>
-    <t xml:space="preserve">dg_skill:树人普攻
+    <t>dg_skill:树人普攻
 attached_script:阿拉尔山剧情_阶段3树人雇佣兵挂载</t>
   </si>
   <si>
     <t>阿拉尔山花妖雇佣兵</t>
   </si>
   <si>
-    <t xml:space="preserve">dg_skill:中立兵剑普攻
+    <t>dg_skill:中立兵剑普攻
 attached_script:阿拉尔山剧情_阶段3花妖雇佣兵挂载</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1900,131 +1900,6 @@
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2047,8 +1922,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,186 +1938,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,11 +1988,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04" tint="0"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2316,592 +2016,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="11" applyFill="1" borderId="5" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="18" applyFill="1" borderId="8" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="18" applyFill="1" borderId="5" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="9" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="50" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="52" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="42" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="43" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="43" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="44" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="45" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="45" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="46" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="47" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3230,3511 +2497,3517 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:7" ht="27">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="F2" s="60"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="D2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.5">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="F3" s="60"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="56" t="s">
+      <c r="D3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.5">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="F4" s="60"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="56" t="s">
+      <c r="D4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="F5" s="60" t="s">
+      <c r="D5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:7" ht="40.5">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="F6" s="60"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="56" t="s">
+      <c r="D6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="F7" s="60"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="56" t="s">
+      <c r="D7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="F8" s="60"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="56" t="s">
+      <c r="D8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="27">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="F9" s="60"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="58" t="s">
+      <c r="D9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="58" t="s">
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="58" t="s">
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="27">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="58" t="s">
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.5">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="F13" s="58" t="s">
+      <c r="D13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:7" ht="40.5">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="F14" s="58" t="s">
+      <c r="D14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:7" ht="27">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="F15" s="58"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="58" t="s">
+      <c r="D15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="67.5">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="58" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="27">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="F17" s="58"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="58" t="s">
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="27">
+      <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="F18" s="58"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="58" t="s">
+      <c r="D18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5">
+      <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="F19" s="58" t="s">
+      <c r="D19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:7" ht="175.5">
+      <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="F20" s="58" t="s">
+      <c r="D20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:7" ht="54">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="F21" s="58" t="s">
+      <c r="D21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:7" ht="54">
+      <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="F22" s="58" t="s">
+      <c r="D22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:7" ht="27">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="58" t="s">
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="27">
+      <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="F24" s="58"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="61" t="s">
+      <c r="D24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="58" t="s">
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="27">
+      <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="63" t="s">
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5">
+      <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="F27" s="64" t="s">
+      <c r="D27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:7" ht="27">
+      <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="F28" s="58"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="58" t="s">
+      <c r="D28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="58" t="s">
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="27">
+      <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="58" t="s">
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="58" t="s">
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="27">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="F32" s="58"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="58" t="s">
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="58" t="s">
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="27">
+      <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="F34" s="58"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="58" t="s">
+      <c r="D34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="27">
+      <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="F35" s="58"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="58" t="s">
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="27">
+      <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="F36" s="58"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="58" t="s">
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="27">
+      <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="F37" s="58"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="58" t="s">
+      <c r="D37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="27">
+      <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="F38" s="58"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="58" t="s">
+      <c r="D38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="F39" s="58"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="58" t="s">
+      <c r="D39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="27">
+      <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="58" t="s">
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="27">
+      <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="F41" s="58"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="58" t="s">
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="F42" s="58"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="58" t="s">
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="121.5">
+      <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="58" t="s">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="54">
+      <c r="A44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="85" t="s">
+      <c r="E44" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="58"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="58" t="s">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="67.5">
+      <c r="A45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="85" t="s">
+      <c r="E45" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="58"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="58" t="s">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="27">
+      <c r="A46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="F46" s="58"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="58" t="s">
+      <c r="D46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="F47" s="58"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="58" t="s">
+      <c r="D47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="F48" s="58"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="58" t="s">
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="F49" s="58"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="58" t="s">
+      <c r="D49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="F50" s="58"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="58" t="s">
+      <c r="D50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="F51" s="58"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="58" t="s">
+      <c r="D51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="F52" s="58"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="58" t="s">
+      <c r="D52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="F53" s="58"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="58" t="s">
+      <c r="D53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="F54" s="58"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="58" t="s">
+      <c r="D54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="F55" s="58"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="58" t="s">
+      <c r="D55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="F56" s="58"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="58" t="s">
+      <c r="D56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="F57" s="58"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="58" t="s">
+      <c r="D57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="27">
+      <c r="A58" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="F58" s="58"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="58" t="s">
+      <c r="D58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="27">
+      <c r="A59" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="F59" s="58"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="58" t="s">
+      <c r="D59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="27">
+      <c r="A60" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="58"/>
-      <c r="F60" s="58"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="58" t="s">
+      <c r="D60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" ht="27">
+      <c r="A61" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="58"/>
-      <c r="F61" s="58"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="58" t="s">
+      <c r="D61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="40.5">
+      <c r="A62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="F62" s="58"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="58" t="s">
+      <c r="D62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="58" t="s">
+      <c r="D63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="F64" s="58"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="58" t="s">
+      <c r="D64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="C65" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="F65" s="58"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="58" t="s">
+      <c r="D65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="58" t="s">
+      <c r="D66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="F67" s="58"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="57" t="s">
+      <c r="D67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="40.5">
+      <c r="A68" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="65"/>
-      <c r="F68" s="66" t="s">
+      <c r="D68" s="12"/>
+      <c r="F68" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G68" s="85" t="s">
+      <c r="G68" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="58" t="s">
+    <row r="69" spans="1:7" ht="27">
+      <c r="A69" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="58"/>
-      <c r="F69" s="58"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="58" t="s">
+      <c r="D69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="27">
+      <c r="A70" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="F70" s="58"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="58" t="s">
+      <c r="D70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="27">
+      <c r="A71" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="F71" s="58"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="67" t="s">
+      <c r="D71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="67"/>
-      <c r="F72" s="67"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="67" t="s">
+      <c r="D72" s="14"/>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="67"/>
-      <c r="F73" s="67"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="67" t="s">
+      <c r="D73" s="14"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D74" s="67"/>
-      <c r="F74" s="67"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="67" t="s">
+      <c r="D74" s="14"/>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" ht="27">
+      <c r="A75" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="F75" s="68"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="67" t="s">
+      <c r="D75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="F76" s="68"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="69" t="s">
+      <c r="D76" s="15"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="70"/>
-      <c r="F77" s="70"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="69" t="s">
+      <c r="D77" s="17"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="70"/>
-      <c r="F78" s="70"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="69" t="s">
+      <c r="D78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" ht="27">
+      <c r="A79" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="69" t="s">
+      <c r="B79" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="70"/>
-      <c r="F79" s="70"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="69" t="s">
+      <c r="D79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" ht="27">
+      <c r="A80" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="69" t="s">
+      <c r="B80" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D80" s="70"/>
-      <c r="F80" s="70"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="69" t="s">
+      <c r="D80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="70"/>
-      <c r="F81" s="70"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="69" t="s">
+      <c r="D81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="70"/>
-      <c r="F82" s="70"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="69" t="s">
+      <c r="D82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="70"/>
-      <c r="F83" s="70"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="69" t="s">
+      <c r="D83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="70"/>
-      <c r="F84" s="70"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="69" t="s">
+      <c r="D84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="70"/>
-      <c r="F85" s="70"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="71" t="s">
+      <c r="D85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="72"/>
-      <c r="F86" s="72"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="71" t="s">
+      <c r="D86" s="19"/>
+      <c r="F86" s="19"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="72"/>
-      <c r="F87" s="72"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="71" t="s">
+      <c r="D87" s="19"/>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" ht="40.5">
+      <c r="A88" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C88" s="85" t="s">
+      <c r="C88" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="72"/>
-      <c r="F88" s="72" t="s">
+      <c r="D88" s="19"/>
+      <c r="F88" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="85" t="s">
+      <c r="G88" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="71" t="s">
+    <row r="89" spans="1:7" ht="27">
+      <c r="A89" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="85" t="s">
+      <c r="C89" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="F89" s="72"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="71" t="s">
+      <c r="D89" s="19"/>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C90" s="85" t="s">
+      <c r="C90" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D90" s="72"/>
-      <c r="F90" s="72"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="71" t="s">
+      <c r="D90" s="19"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" ht="27">
+      <c r="A91" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C91" s="85" t="s">
+      <c r="C91" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="F91" s="71"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="71" t="s">
+      <c r="D91" s="18"/>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="85" t="s">
+      <c r="C92" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="F92" s="72"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="71" t="s">
+      <c r="D92" s="19"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" ht="27">
+      <c r="A93" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="85" t="s">
+      <c r="C93" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="F93" s="72"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="71" t="s">
+      <c r="D93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C94" s="85" t="s">
+      <c r="C94" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D94" s="72"/>
-      <c r="F94" s="72"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="71" t="s">
+      <c r="D94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C95" s="85" t="s">
+      <c r="C95" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D95" s="72"/>
-      <c r="F95" s="72"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="71" t="s">
+      <c r="D95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="72"/>
-      <c r="F96" s="72"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="71" t="s">
+      <c r="D96" s="19"/>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B97" s="71" t="s">
+      <c r="B97" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C97" s="85" t="s">
+      <c r="C97" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D97" s="72"/>
-      <c r="F97" s="72"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="71" t="s">
+      <c r="D97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" ht="27">
+      <c r="A98" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B98" s="71" t="s">
+      <c r="B98" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C98" s="85" t="s">
+      <c r="C98" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="72"/>
-      <c r="F98" s="72"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="71" t="s">
+      <c r="D98" s="19"/>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6" ht="27">
+      <c r="A99" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B99" s="71" t="s">
+      <c r="B99" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="85" t="s">
+      <c r="C99" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="72"/>
-      <c r="F99" s="72"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="71" t="s">
+      <c r="D99" s="19"/>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6" ht="27">
+      <c r="A100" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="85" t="s">
+      <c r="C100" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="72"/>
-      <c r="F100" s="72"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="71" t="s">
+      <c r="D100" s="19"/>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B101" s="71" t="s">
+      <c r="B101" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="85" t="s">
+      <c r="C101" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D101" s="72"/>
-      <c r="F101" s="72"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="73" t="s">
+      <c r="D101" s="19"/>
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="1:6" ht="22.5">
+      <c r="A102" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B102" s="73" t="s">
+      <c r="B102" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="85" t="s">
+      <c r="C102" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="73" t="s">
+    <row r="103" spans="1:6">
+      <c r="A103" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="73" t="s">
+    <row r="104" spans="1:6">
+      <c r="A104" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="73" t="s">
+    <row r="105" spans="1:6" ht="22.5">
+      <c r="A105" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C105" s="85" t="s">
+      <c r="C105" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="73" t="s">
+    <row r="106" spans="1:6">
+      <c r="A106" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C106" s="85" t="s">
+      <c r="C106" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="58" t="s">
+    <row r="107" spans="1:6" ht="27">
+      <c r="A107" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="85" t="s">
+      <c r="C107" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="F107" s="58"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="58" t="s">
+      <c r="D107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="85" t="s">
+      <c r="C108" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="D108" s="58"/>
-      <c r="F108" s="58"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="58" t="s">
+      <c r="D108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C109" s="85" t="s">
+      <c r="C109" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D109" s="58"/>
-      <c r="F109" s="58"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="58" t="s">
+      <c r="D109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D110" s="58"/>
-      <c r="F110" s="58"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="58" t="s">
+      <c r="D110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C111" s="85" t="s">
+      <c r="C111" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="D111" s="58"/>
-      <c r="F111" s="58"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="58" t="s">
+      <c r="D111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C112" s="85" t="s">
+      <c r="C112" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D112" s="58"/>
-      <c r="F112" s="58"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="58" t="s">
+      <c r="D112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" ht="27">
+      <c r="A113" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B113" s="58" t="s">
+      <c r="B113" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C113" s="85" t="s">
+      <c r="C113" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D113" s="58"/>
-      <c r="F113" s="58"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="58" t="s">
+      <c r="D113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C114" s="85" t="s">
+      <c r="C114" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D114" s="58"/>
-      <c r="F114" s="58"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="73" t="s">
+      <c r="D114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B115" s="73" t="s">
+      <c r="B115" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="85" t="s">
+      <c r="C115" s="32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="74" t="s">
+    <row r="116" spans="1:6">
+      <c r="A116" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B116" s="74" t="s">
+      <c r="B116" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C116" s="85" t="s">
+      <c r="C116" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="75" t="s">
+    <row r="117" spans="1:6">
+      <c r="A117" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="75" t="s">
+      <c r="B117" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C117" s="85" t="s">
+      <c r="C117" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="67" t="s">
+    <row r="118" spans="1:6" ht="27">
+      <c r="A118" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C118" s="85" t="s">
+      <c r="C118" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="67"/>
-      <c r="F118" s="67"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="54" t="s">
+      <c r="D118" s="14"/>
+      <c r="F118" s="14"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C119" s="85" t="s">
+      <c r="C119" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D119" s="55"/>
-      <c r="F119" s="55"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="67" t="s">
+      <c r="D119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C120" s="85" t="s">
+      <c r="C120" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="67"/>
-      <c r="F120" s="67"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="67" t="s">
+      <c r="D120" s="14"/>
+      <c r="F120" s="14"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="F121" s="67"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="67" t="s">
+      <c r="D121" s="14"/>
+      <c r="F121" s="14"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C122" s="85" t="s">
+      <c r="C122" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="F122" s="67"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="67" t="s">
+      <c r="D122" s="14"/>
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C123" s="85" t="s">
+      <c r="C123" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D123" s="67"/>
-      <c r="F123" s="67"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="67" t="s">
+      <c r="D123" s="14"/>
+      <c r="F123" s="14"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C124" s="85" t="s">
+      <c r="C124" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D124" s="67"/>
-      <c r="F124" s="67"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="58" t="s">
+      <c r="D124" s="14"/>
+      <c r="F124" s="14"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="B125" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C125" s="85" t="s">
+      <c r="C125" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D125" s="58"/>
-      <c r="F125" s="58"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="58" t="s">
+      <c r="D125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="B126" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="D126" s="58"/>
-      <c r="F126" s="58"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="58" t="s">
+      <c r="D126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="B127" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C127" s="85" t="s">
+      <c r="C127" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="D127" s="58"/>
-      <c r="F127" s="58"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="58" t="s">
+      <c r="D127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B128" s="58" t="s">
+      <c r="B128" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C128" s="85" t="s">
+      <c r="C128" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D128" s="58"/>
-      <c r="F128" s="58"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="58" t="s">
+      <c r="D128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C129" s="85" t="s">
+      <c r="C129" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="D129" s="58"/>
-      <c r="F129" s="58"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="75" t="s">
+      <c r="D129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" ht="22.5">
+      <c r="A130" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B130" s="75" t="s">
+      <c r="B130" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="54" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C131" s="85" t="s">
+      <c r="C131" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D131" s="55"/>
-      <c r="F131" s="55"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="54" t="s">
+      <c r="D131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B132" s="54" t="s">
+      <c r="B132" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="85" t="s">
+      <c r="C132" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D132" s="55"/>
-      <c r="F132" s="55"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="54" t="s">
+      <c r="D132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C133" s="85" t="s">
+      <c r="C133" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D133" s="55"/>
-      <c r="F133" s="55"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="54" t="s">
+      <c r="D133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="85" t="s">
+      <c r="C134" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="55"/>
-      <c r="F134" s="55"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="54" t="s">
+      <c r="D134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B135" s="54" t="s">
+      <c r="B135" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C135" s="85" t="s">
+      <c r="C135" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D135" s="55"/>
-      <c r="F135" s="55"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="54" t="s">
+      <c r="D135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B136" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C136" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D136" s="55"/>
-      <c r="F136" s="55"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="54" t="s">
+      <c r="D136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B137" s="54" t="s">
+      <c r="B137" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="85" t="s">
+      <c r="C137" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="D137" s="55"/>
-      <c r="F137" s="55"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="54" t="s">
+      <c r="D137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C138" s="85" t="s">
+      <c r="C138" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="D138" s="55"/>
-      <c r="F138" s="55"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="54" t="s">
+      <c r="D138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C139" s="85" t="s">
+      <c r="C139" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="D139" s="55"/>
-      <c r="F139" s="55"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="54" t="s">
+      <c r="D139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C140" s="85" t="s">
+      <c r="C140" s="32" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="54" t="s">
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="85" t="s">
+      <c r="C141" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="D141" s="55"/>
-      <c r="F141" s="55"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="54" t="s">
+      <c r="D141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="27">
+      <c r="A142" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B142" s="54" t="s">
+      <c r="B142" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C142" s="85" t="s">
+      <c r="C142" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="D142" s="55"/>
-      <c r="F142" s="55"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="76" t="s">
+      <c r="D142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="27">
+      <c r="A143" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B143" s="76" t="s">
+      <c r="B143" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C143" s="85" t="s">
+      <c r="C143" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D143" s="77"/>
-      <c r="F143" s="77"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="76" t="s">
+      <c r="D143" s="24"/>
+      <c r="F143" s="24"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="B144" s="76" t="s">
+      <c r="B144" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C144" s="85" t="s">
+      <c r="C144" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="D144" s="77"/>
-      <c r="F144" s="77"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="76" t="s">
+      <c r="D144" s="24"/>
+      <c r="F144" s="24"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B145" s="76" t="s">
+      <c r="B145" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C145" s="85" t="s">
+      <c r="C145" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="D145" s="77"/>
-      <c r="F145" s="77"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="76" t="s">
+      <c r="D145" s="24"/>
+      <c r="F145" s="24"/>
+    </row>
+    <row r="146" spans="1:6" ht="27">
+      <c r="A146" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="B146" s="76" t="s">
+      <c r="B146" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="85" t="s">
+      <c r="C146" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="D146" s="77"/>
-      <c r="F146" s="77"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="76" t="s">
+      <c r="D146" s="24"/>
+      <c r="F146" s="24"/>
+    </row>
+    <row r="147" spans="1:6" ht="27">
+      <c r="A147" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B147" s="76" t="s">
+      <c r="B147" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="D147" s="77"/>
-      <c r="F147" s="77"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="76" t="s">
+      <c r="D147" s="24"/>
+      <c r="F147" s="24"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B148" s="76" t="s">
+      <c r="B148" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C148" s="85" t="s">
+      <c r="C148" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="D148" s="77"/>
-      <c r="F148" s="77"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="76" t="s">
+      <c r="D148" s="24"/>
+      <c r="F148" s="24"/>
+    </row>
+    <row r="149" spans="1:6" ht="27">
+      <c r="A149" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="B149" s="76" t="s">
+      <c r="B149" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D149" s="77"/>
-      <c r="F149" s="77"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="76" t="s">
+      <c r="D149" s="24"/>
+      <c r="F149" s="24"/>
+    </row>
+    <row r="150" spans="1:6" ht="27">
+      <c r="A150" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="B150" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D150" s="77"/>
-      <c r="F150" s="77"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="76" t="s">
+      <c r="D150" s="24"/>
+      <c r="F150" s="24"/>
+    </row>
+    <row r="151" spans="1:6" ht="27">
+      <c r="A151" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B151" s="76" t="s">
+      <c r="B151" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C151" s="85" t="s">
+      <c r="C151" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D151" s="77"/>
-      <c r="F151" s="77"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="76" t="s">
+      <c r="D151" s="24"/>
+      <c r="F151" s="24"/>
+    </row>
+    <row r="152" spans="1:6" ht="27">
+      <c r="A152" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B152" s="76" t="s">
+      <c r="B152" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C152" s="85" t="s">
+      <c r="C152" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D152" s="77"/>
-      <c r="F152" s="77"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="76" t="s">
+      <c r="D152" s="24"/>
+      <c r="F152" s="24"/>
+    </row>
+    <row r="153" spans="1:6" ht="27">
+      <c r="A153" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="B153" s="76" t="s">
+      <c r="B153" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C153" s="85" t="s">
+      <c r="C153" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D153" s="77"/>
-      <c r="F153" s="77"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="76" t="s">
+      <c r="D153" s="24"/>
+      <c r="F153" s="24"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B154" s="76" t="s">
+      <c r="B154" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C154" s="85" t="s">
+      <c r="C154" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="D154" s="77"/>
-      <c r="F154" s="77"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="76" t="s">
+      <c r="D154" s="24"/>
+      <c r="F154" s="24"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B155" s="76" t="s">
+      <c r="B155" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="C155" s="85" t="s">
+      <c r="C155" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="D155" s="77"/>
-      <c r="F155" s="77"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="58" t="s">
+      <c r="D155" s="24"/>
+      <c r="F155" s="24"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B156" s="58" t="s">
+      <c r="B156" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C156" s="85" t="s">
+      <c r="C156" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="D156" s="58"/>
-      <c r="F156" s="58"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="78" t="s">
+      <c r="D156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B157" s="78" t="s">
+      <c r="B157" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C157" s="85" t="s">
+      <c r="C157" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="D157" s="78"/>
-      <c r="F157" s="78"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="78" t="s">
+      <c r="D157" s="25"/>
+      <c r="F157" s="25"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B158" s="78" t="s">
+      <c r="B158" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C158" s="85" t="s">
+      <c r="C158" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="D158" s="78"/>
-      <c r="F158" s="78"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="78" t="s">
+      <c r="D158" s="25"/>
+      <c r="F158" s="25"/>
+    </row>
+    <row r="159" spans="1:6" ht="27">
+      <c r="A159" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="78" t="s">
+      <c r="B159" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="C159" s="85" t="s">
+      <c r="C159" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="D159" s="78"/>
-      <c r="F159" s="78"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="78" t="s">
+      <c r="D159" s="25"/>
+      <c r="F159" s="25"/>
+    </row>
+    <row r="160" spans="1:6" ht="27">
+      <c r="A160" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B160" s="78" t="s">
+      <c r="B160" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D160" s="78"/>
-      <c r="F160" s="78"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="78" t="s">
+      <c r="D160" s="25"/>
+      <c r="F160" s="25"/>
+    </row>
+    <row r="161" spans="1:7" ht="27">
+      <c r="A161" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B161" s="78" t="s">
+      <c r="B161" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="85" t="s">
+      <c r="C161" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="D161" s="78"/>
-      <c r="F161" s="78"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="78" t="s">
+      <c r="D161" s="25"/>
+      <c r="F161" s="25"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B162" s="78" t="s">
+      <c r="B162" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="D162" s="78"/>
-      <c r="F162" s="78"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="78" t="s">
+      <c r="D162" s="25"/>
+      <c r="F162" s="25"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B163" s="78" t="s">
+      <c r="B163" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="85" t="s">
+      <c r="C163" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="D163" s="78"/>
-      <c r="F163" s="78"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="78" t="s">
+      <c r="D163" s="25"/>
+      <c r="F163" s="25"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B164" s="78" t="s">
+      <c r="B164" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C164" s="85" t="s">
+      <c r="C164" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="D164" s="78"/>
-      <c r="F164" s="78"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="78" t="s">
+      <c r="D164" s="25"/>
+      <c r="F164" s="25"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B165" s="78" t="s">
+      <c r="B165" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="C165" s="85" t="s">
+      <c r="C165" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="D165" s="78"/>
-      <c r="F165" s="78"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="58" t="s">
+      <c r="D165" s="25"/>
+      <c r="F165" s="25"/>
+    </row>
+    <row r="166" spans="1:7" ht="81">
+      <c r="A166" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B166" s="58" t="s">
+      <c r="B166" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C166" s="85" t="s">
+      <c r="C166" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D166" s="58" t="s">
+      <c r="D166" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E166" s="85" t="s">
+      <c r="E166" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F166" s="58"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="58" t="s">
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" ht="94.5">
+      <c r="A167" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B167" s="58" t="s">
+      <c r="B167" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C167" s="85" t="s">
+      <c r="C167" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D167" s="58" t="s">
+      <c r="D167" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E167" s="85" t="s">
+      <c r="E167" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="F167" s="58"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="58" t="s">
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="1:7" ht="175.5">
+      <c r="A168" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C168" s="85" t="s">
+      <c r="C168" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D168" s="58" t="s">
+      <c r="D168" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E168" s="85" t="s">
+      <c r="E168" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="F168" s="58"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="58" t="s">
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" ht="175.5">
+      <c r="A169" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B169" s="58" t="s">
+      <c r="B169" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C169" s="85" t="s">
+      <c r="C169" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D169" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E169" s="85" t="s">
+      <c r="E169" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="F169" s="58"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="58" t="s">
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:7" ht="27">
+      <c r="A170" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B170" s="58" t="s">
+      <c r="B170" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D170" s="58"/>
-      <c r="F170" s="58"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="58" t="s">
+      <c r="D170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:7" ht="27">
+      <c r="A171" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B171" s="58" t="s">
+      <c r="B171" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C171" s="85" t="s">
+      <c r="C171" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D171" s="58"/>
-      <c r="F171" s="58"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="58" t="s">
+      <c r="D171" s="5"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" ht="175.5">
+      <c r="A172" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B172" s="58" t="s">
+      <c r="B172" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C172" s="85" t="s">
+      <c r="C172" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D172" s="58" t="s">
+      <c r="D172" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E172" s="85" t="s">
+      <c r="E172" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="F172" s="58"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="79" t="s">
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" ht="409.5">
+      <c r="A173" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B173" s="79" t="s">
+      <c r="B173" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="D173" s="80"/>
-      <c r="F173" s="80" t="s">
+      <c r="D173" s="27"/>
+      <c r="F173" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="G173" s="85" t="s">
+      <c r="G173" s="32" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="58" t="s">
+    <row r="174" spans="1:7" ht="27">
+      <c r="A174" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B174" s="58" t="s">
+      <c r="B174" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C174" s="85" t="s">
+      <c r="C174" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="F174" s="58"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="58" t="s">
+      <c r="D174" s="5"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" ht="27">
+      <c r="A175" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B175" s="58" t="s">
+      <c r="B175" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C175" s="85" t="s">
+      <c r="C175" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="D175" s="58"/>
-      <c r="F175" s="58"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="58" t="s">
+      <c r="D175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B176" s="58" t="s">
+      <c r="B176" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C176" s="85" t="s">
+      <c r="C176" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="D176" s="58"/>
-      <c r="F176" s="58"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="58" t="s">
+      <c r="D176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="1:7" ht="27">
+      <c r="A177" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B177" s="58" t="s">
+      <c r="B177" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C177" s="85" t="s">
+      <c r="C177" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="F177" s="58"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="58" t="s">
+      <c r="D177" s="5"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="1:7" ht="27">
+      <c r="A178" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B178" s="58" t="s">
+      <c r="B178" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C178" s="85" t="s">
+      <c r="C178" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="F178" s="58"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="58" t="s">
+      <c r="D178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:7" ht="27">
+      <c r="A179" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B179" s="58" t="s">
+      <c r="B179" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C179" s="85" t="s">
+      <c r="C179" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="D179" s="58"/>
-      <c r="F179" s="58"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="54" t="s">
+      <c r="D179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" ht="27">
+      <c r="A180" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C180" s="85" t="s">
+      <c r="C180" s="32" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="58" t="s">
+    <row r="181" spans="1:7" ht="27">
+      <c r="A181" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="58" t="s">
+      <c r="B181" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C181" s="85" t="s">
+      <c r="C181" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="D181" s="58"/>
-      <c r="F181" s="58"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="58" t="s">
+      <c r="D181" s="5"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" ht="27">
+      <c r="A182" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B182" s="58" t="s">
+      <c r="B182" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C182" s="85" t="s">
+      <c r="C182" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="D182" s="58"/>
-      <c r="F182" s="58"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="79" t="s">
+      <c r="D182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="B183" s="79" t="s">
+      <c r="B183" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C183" s="85" t="s">
+      <c r="C183" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="D183" s="80"/>
-      <c r="F183" s="80"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="79" t="s">
+      <c r="D183" s="27"/>
+      <c r="F183" s="27"/>
+    </row>
+    <row r="184" spans="1:7" ht="94.5">
+      <c r="A184" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B184" s="79" t="s">
+      <c r="B184" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C184" s="85" t="s">
+      <c r="C184" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="D184" s="80"/>
-      <c r="F184" s="80" t="s">
+      <c r="D184" s="27"/>
+      <c r="F184" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="G184" s="85" t="s">
+      <c r="G184" s="32" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="58" t="s">
+    <row r="185" spans="1:7">
+      <c r="A185" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B185" s="58" t="s">
+      <c r="B185" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C185" s="85" t="s">
+      <c r="C185" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="D185" s="58"/>
-      <c r="F185" s="58"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="58" t="s">
+      <c r="D185" s="5"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B186" s="58" t="s">
+      <c r="B186" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C186" s="85" t="s">
+      <c r="C186" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="F186" s="58"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="58" t="s">
+      <c r="D186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B187" s="58" t="s">
+      <c r="B187" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C187" s="85" t="s">
+      <c r="C187" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="D187" s="58"/>
-      <c r="F187" s="58"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="58" t="s">
+      <c r="D187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B188" s="58" t="s">
+      <c r="B188" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C188" s="85" t="s">
+      <c r="C188" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="F188" s="58"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="58" t="s">
+      <c r="D188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B189" s="58" t="s">
+      <c r="B189" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C189" s="85" t="s">
+      <c r="C189" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="D189" s="58"/>
-      <c r="F189" s="58"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="58" t="s">
+      <c r="D189" s="5"/>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:7" ht="27">
+      <c r="A190" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B190" s="58" t="s">
+      <c r="B190" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C190" s="85" t="s">
+      <c r="C190" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="D190" s="58"/>
-      <c r="F190" s="58"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="71" t="s">
+      <c r="D190" s="5"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" ht="27">
+      <c r="A191" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B191" s="71" t="s">
+      <c r="B191" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="C191" s="85" t="s">
+      <c r="C191" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="D191" s="72"/>
-      <c r="F191" s="72"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="71" t="s">
+      <c r="D191" s="19"/>
+      <c r="F191" s="19"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="B192" s="71" t="s">
+      <c r="B192" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="C192" s="85" t="s">
+      <c r="C192" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="D192" s="72"/>
-      <c r="F192" s="72"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="71" t="s">
+      <c r="D192" s="19"/>
+      <c r="F192" s="19"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="B193" s="71" t="s">
+      <c r="B193" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C193" s="85" t="s">
+      <c r="C193" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="D193" s="72"/>
-      <c r="F193" s="72"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="71" t="s">
+      <c r="D193" s="19"/>
+      <c r="F193" s="19"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="B194" s="71" t="s">
+      <c r="B194" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="C194" s="85" t="s">
+      <c r="C194" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D194" s="72"/>
-      <c r="F194" s="72"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="58" t="s">
+      <c r="D194" s="19"/>
+      <c r="F194" s="19"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B195" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C195" s="85" t="s">
+      <c r="C195" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="D195" s="58"/>
-      <c r="F195" s="58"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="58" t="s">
+      <c r="D195" s="5"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" ht="27">
+      <c r="A196" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B196" s="58" t="s">
+      <c r="B196" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="85" t="s">
+      <c r="C196" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D196" s="58"/>
-      <c r="F196" s="58"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="78" t="s">
+      <c r="D196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="B197" s="78" t="s">
+      <c r="B197" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C197" s="85" t="s">
+      <c r="C197" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D197" s="78"/>
-      <c r="F197" s="78"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="67" t="s">
+      <c r="D197" s="25"/>
+      <c r="F197" s="25"/>
+    </row>
+    <row r="198" spans="1:6" ht="27">
+      <c r="A198" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="B198" s="67" t="s">
+      <c r="B198" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C198" s="85" t="s">
+      <c r="C198" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="D198" s="67"/>
-      <c r="F198" s="67"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="67" t="s">
+      <c r="D198" s="14"/>
+      <c r="F198" s="14"/>
+    </row>
+    <row r="199" spans="1:6" ht="27">
+      <c r="A199" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B199" s="67" t="s">
+      <c r="B199" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C199" s="85" t="s">
+      <c r="C199" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="D199" s="67"/>
-      <c r="F199" s="67"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="67" t="s">
+      <c r="D199" s="14"/>
+      <c r="F199" s="14"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B200" s="67" t="s">
+      <c r="B200" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C200" s="85" t="s">
+      <c r="C200" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="D200" s="67"/>
-      <c r="F200" s="67"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="58" t="s">
+      <c r="D200" s="14"/>
+      <c r="F200" s="14"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B201" s="58" t="s">
+      <c r="B201" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C201" s="85" t="s">
+      <c r="C201" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="D201" s="58"/>
-      <c r="F201" s="58"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="58" t="s">
+      <c r="D201" s="5"/>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B202" s="58" t="s">
+      <c r="B202" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C202" s="85" t="s">
+      <c r="C202" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="D202" s="58"/>
-      <c r="F202" s="58"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="67" t="s">
+      <c r="D202" s="5"/>
+      <c r="F202" s="5"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="B203" s="67" t="s">
+      <c r="B203" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C203" s="85" t="s">
+      <c r="C203" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="D203" s="67"/>
-      <c r="F203" s="67"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="54" t="s">
+      <c r="D203" s="14"/>
+      <c r="F203" s="14"/>
+    </row>
+    <row r="204" spans="1:6" ht="27">
+      <c r="A204" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B204" s="54" t="s">
+      <c r="B204" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C204" s="85" t="s">
+      <c r="C204" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="D204" s="55"/>
-      <c r="F204" s="55"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="54" t="s">
+      <c r="D204" s="2"/>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" ht="27">
+      <c r="A205" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B205" s="54" t="s">
+      <c r="B205" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C205" s="85" t="s">
+      <c r="C205" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D205" s="55"/>
-      <c r="F205" s="55"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="54" t="s">
+      <c r="D205" s="2"/>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" ht="27">
+      <c r="A206" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B206" s="54" t="s">
+      <c r="B206" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C206" s="85" t="s">
+      <c r="C206" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="D206" s="55"/>
-      <c r="F206" s="55"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="67" t="s">
+      <c r="D206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" ht="27">
+      <c r="A207" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B207" s="67" t="s">
+      <c r="B207" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C207" s="85" t="s">
+      <c r="C207" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D207" s="67"/>
-      <c r="F207" s="67"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="67" t="s">
+      <c r="D207" s="14"/>
+      <c r="F207" s="14"/>
+    </row>
+    <row r="208" spans="1:6" ht="27">
+      <c r="A208" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B208" s="67" t="s">
+      <c r="B208" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C208" s="85" t="s">
+      <c r="C208" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="F208" s="67"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="81" t="s">
+      <c r="D208" s="14"/>
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="81" t="s">
+      <c r="B209" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="C209" s="85" t="s">
+      <c r="C209" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="D209" s="55"/>
-      <c r="F209" s="82"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="81" t="s">
+      <c r="D209" s="2"/>
+      <c r="F209" s="29"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="B210" s="81" t="s">
+      <c r="B210" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="C210" s="85" t="s">
+      <c r="C210" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="D210" s="55"/>
-      <c r="F210" s="82"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="81" t="s">
+      <c r="D210" s="2"/>
+      <c r="F210" s="29"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="B211" s="81" t="s">
+      <c r="B211" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="C211" s="85" t="s">
+      <c r="C211" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="D211" s="55"/>
-      <c r="F211" s="82"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="81" t="s">
+      <c r="D211" s="2"/>
+      <c r="F211" s="29"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="B212" s="81" t="s">
+      <c r="B212" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="C212" s="85" t="s">
+      <c r="C212" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="D212" s="55"/>
-      <c r="F212" s="82"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="58" t="s">
+      <c r="D212" s="2"/>
+      <c r="F212" s="29"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B213" s="58" t="s">
+      <c r="B213" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C213" s="85" t="s">
+      <c r="C213" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D213" s="58"/>
-      <c r="F213" s="58"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="58" t="s">
+      <c r="D213" s="5"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B214" s="58" t="s">
+      <c r="B214" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C214" s="85" t="s">
+      <c r="C214" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="D214" s="58"/>
-      <c r="F214" s="58"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="58" t="s">
+      <c r="D214" s="5"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B215" s="58" t="s">
+      <c r="B215" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C215" s="85" t="s">
+      <c r="C215" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="D215" s="58"/>
-      <c r="F215" s="58"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="79" t="s">
+      <c r="D215" s="5"/>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:7" ht="409.5">
+      <c r="A216" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="B216" s="79" t="s">
+      <c r="B216" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="C216" s="85" t="s">
+      <c r="C216" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="D216" s="80" t="s">
+      <c r="D216" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E216" s="85" t="s">
+      <c r="E216" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="F216" s="80" t="s">
+      <c r="F216" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="G216" s="85" t="s">
+      <c r="G216" s="32" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="58" t="s">
+    <row r="217" spans="1:7" ht="54">
+      <c r="A217" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B217" s="58" t="s">
+      <c r="B217" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C217" s="85" t="s">
+      <c r="C217" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D217" s="58"/>
-      <c r="F217" s="58" t="s">
+      <c r="D217" s="5"/>
+      <c r="F217" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="G217" s="85" t="s">
+      <c r="G217" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="58" t="s">
+    <row r="218" spans="1:7" ht="27">
+      <c r="A218" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B218" s="58" t="s">
+      <c r="B218" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C218" s="85" t="s">
+      <c r="C218" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="D218" s="58"/>
-      <c r="F218" s="58"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="58" t="s">
+      <c r="D218" s="5"/>
+      <c r="F218" s="5"/>
+    </row>
+    <row r="219" spans="1:7" ht="54">
+      <c r="A219" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B219" s="58" t="s">
+      <c r="B219" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C219" s="85" t="s">
+      <c r="C219" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="D219" s="58"/>
-      <c r="F219" s="58" t="s">
+      <c r="D219" s="5"/>
+      <c r="F219" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G219" s="85" t="s">
+      <c r="G219" s="32" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="79" t="s">
+    <row r="220" spans="1:7" ht="409.5">
+      <c r="A220" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="B220" s="79" t="s">
+      <c r="B220" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="C220" s="85" t="s">
+      <c r="C220" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="D220" s="80" t="s">
+      <c r="D220" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="E220" s="85" t="s">
+      <c r="E220" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="F220" s="80" t="s">
+      <c r="F220" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="G220" s="85" t="s">
+      <c r="G220" s="32" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="54" t="s">
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B221" s="54" t="s">
+      <c r="B221" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C221" s="85" t="s">
+      <c r="C221" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="D221" s="55"/>
-      <c r="F221" s="55"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="54" t="s">
+      <c r="D221" s="2"/>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B222" s="54" t="s">
+      <c r="B222" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C222" s="85" t="s">
+      <c r="C222" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="D222" s="55"/>
-      <c r="F222" s="55"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="54" t="s">
+      <c r="D222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B223" s="54" t="s">
+      <c r="B223" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C223" s="85" t="s">
+      <c r="C223" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="D223" s="55"/>
-      <c r="F223" s="55"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="54" t="s">
+      <c r="D223" s="2"/>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" ht="27">
+      <c r="A224" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B224" s="54" t="s">
+      <c r="B224" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C224" s="85" t="s">
+      <c r="C224" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="D224" s="55"/>
-      <c r="F224" s="55"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="79" t="s">
+      <c r="D224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" ht="409.5">
+      <c r="A225" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="B225" s="79" t="s">
+      <c r="B225" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="C225" s="85" t="s">
+      <c r="C225" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="D225" s="80" t="s">
+      <c r="D225" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="E225" s="85" t="s">
+      <c r="E225" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="F225" s="80" t="s">
+      <c r="F225" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="G225" s="85" t="s">
+      <c r="G225" s="32" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="58" t="s">
+    <row r="226" spans="1:7">
+      <c r="A226" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B226" s="58" t="s">
+      <c r="B226" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C226" s="85" t="s">
+      <c r="C226" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D226" s="58"/>
-      <c r="F226" s="58"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="58" t="s">
+      <c r="D226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B227" s="58" t="s">
+      <c r="B227" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C227" s="85" t="s">
+      <c r="C227" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="D227" s="58"/>
-      <c r="F227" s="58"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="58" t="s">
+      <c r="D227" s="5"/>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B228" s="58" t="s">
+      <c r="B228" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C228" s="85" t="s">
+      <c r="C228" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="D228" s="58"/>
-      <c r="F228" s="58"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="58" t="s">
+      <c r="D228" s="5"/>
+      <c r="F228" s="5"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B229" s="58" t="s">
+      <c r="B229" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C229" s="85" t="s">
+      <c r="C229" s="32" t="s">
         <v>536</v>
       </c>
-      <c r="D229" s="58"/>
-      <c r="F229" s="58"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="58" t="s">
+      <c r="D229" s="5"/>
+      <c r="F229" s="5"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B230" s="58" t="s">
+      <c r="B230" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C230" s="85" t="s">
+      <c r="C230" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="D230" s="58"/>
-      <c r="F230" s="58"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="58" t="s">
+      <c r="D230" s="5"/>
+      <c r="F230" s="5"/>
+    </row>
+    <row r="231" spans="1:7" ht="27">
+      <c r="A231" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B231" s="58" t="s">
+      <c r="B231" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C231" s="85" t="s">
+      <c r="C231" s="32" t="s">
         <v>540</v>
       </c>
-      <c r="D231" s="58"/>
-      <c r="F231" s="58"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="58" t="s">
+      <c r="D231" s="5"/>
+      <c r="F231" s="5"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B232" s="58" t="s">
+      <c r="B232" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C232" s="85" t="s">
+      <c r="C232" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="D232" s="58"/>
-      <c r="F232" s="58"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="58" t="s">
+      <c r="D232" s="5"/>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B233" s="58" t="s">
+      <c r="B233" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C233" s="85" t="s">
+      <c r="C233" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="D233" s="58"/>
-      <c r="F233" s="58"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="58" t="s">
+      <c r="D233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" ht="27">
+      <c r="A234" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B234" s="58" t="s">
+      <c r="B234" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C234" s="85" t="s">
+      <c r="C234" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="D234" s="58"/>
-      <c r="F234" s="58"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="58" t="s">
+      <c r="D234" s="5"/>
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B235" s="58" t="s">
+      <c r="B235" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C235" s="85" t="s">
+      <c r="C235" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="D235" s="58"/>
-      <c r="F235" s="58"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="54" t="s">
+      <c r="D235" s="5"/>
+      <c r="F235" s="5"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B236" s="54" t="s">
+      <c r="B236" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C236" s="85" t="s">
+      <c r="C236" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="D236" s="58"/>
-      <c r="F236" s="58"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="54" t="s">
+      <c r="D236" s="5"/>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" ht="27">
+      <c r="A237" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B237" s="54" t="s">
+      <c r="B237" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C237" s="85" t="s">
+      <c r="C237" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="D237" s="58"/>
-      <c r="F237" s="58" t="s">
+      <c r="D237" s="5"/>
+      <c r="F237" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="G237" s="85" t="s">
+      <c r="G237" s="32" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="54" t="s">
+    <row r="238" spans="1:7" ht="27">
+      <c r="A238" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B238" s="54" t="s">
+      <c r="B238" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C238" s="85" t="s">
+      <c r="C238" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="D238" s="58"/>
-      <c r="F238" s="58"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="54" t="s">
+      <c r="D238" s="5"/>
+      <c r="F238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" ht="27">
+      <c r="A239" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B239" s="54" t="s">
+      <c r="B239" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C239" s="85" t="s">
+      <c r="C239" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="D239" s="58"/>
-      <c r="F239" s="58"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="54" t="s">
+      <c r="D239" s="5"/>
+      <c r="F239" s="5"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B240" s="54" t="s">
+      <c r="B240" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C240" s="85" t="s">
+      <c r="C240" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="D240" s="58"/>
-      <c r="F240" s="58"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="54" t="s">
+      <c r="D240" s="5"/>
+      <c r="F240" s="5"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B241" s="54" t="s">
+      <c r="B241" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C241" s="85" t="s">
+      <c r="C241" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="D241" s="58"/>
-      <c r="F241" s="58"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="58" t="s">
+      <c r="D241" s="5"/>
+      <c r="F241" s="5"/>
+    </row>
+    <row r="242" spans="1:7" ht="27">
+      <c r="A242" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B242" s="58" t="s">
+      <c r="B242" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C242" s="85" t="s">
+      <c r="C242" s="32" t="s">
         <v>563</v>
       </c>
-      <c r="D242" s="58"/>
-      <c r="F242" s="58"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="58" t="s">
+      <c r="D242" s="5"/>
+      <c r="F242" s="5"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B243" s="58" t="s">
+      <c r="B243" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C243" s="85" t="s">
+      <c r="C243" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="D243" s="58"/>
-      <c r="F243" s="58"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="58" t="s">
+      <c r="D243" s="5"/>
+      <c r="F243" s="5"/>
+    </row>
+    <row r="244" spans="1:7" ht="40.5">
+      <c r="A244" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B244" s="58" t="s">
+      <c r="B244" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C244" s="85" t="s">
+      <c r="C244" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="D244" s="58"/>
-      <c r="F244" s="58" t="s">
+      <c r="D244" s="5"/>
+      <c r="F244" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="G244" s="85" t="s">
+      <c r="G244" s="32" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="54" t="s">
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B245" s="54" t="s">
+      <c r="B245" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C245" s="85" t="s">
+      <c r="C245" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="D245" s="58"/>
-      <c r="F245" s="58"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="54" t="s">
+      <c r="D245" s="5"/>
+      <c r="F245" s="5"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B246" s="54" t="s">
+      <c r="B246" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C246" s="85" t="s">
+      <c r="C246" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="D246" s="58"/>
-      <c r="F246" s="58"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="58" t="s">
+      <c r="D246" s="5"/>
+      <c r="F246" s="5"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B247" s="58" t="s">
+      <c r="B247" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C247" s="85" t="s">
+      <c r="C247" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="D247" s="58"/>
-      <c r="F247" s="58"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="54" t="s">
+      <c r="D247" s="5"/>
+      <c r="F247" s="5"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B248" s="54" t="s">
+      <c r="B248" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C248" s="85" t="s">
+      <c r="C248" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="D248" s="55"/>
-      <c r="F248" s="55"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="58" t="s">
+      <c r="D248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" ht="270">
+      <c r="A249" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B249" s="58" t="s">
+      <c r="B249" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C249" s="85" t="s">
+      <c r="C249" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="D249" s="58"/>
-      <c r="F249" s="55" t="s">
+      <c r="D249" s="5"/>
+      <c r="F249" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G249" s="85" t="s">
+      <c r="G249" s="32" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="58" t="s">
+    <row r="250" spans="1:7" ht="270">
+      <c r="A250" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B250" s="58" t="s">
+      <c r="B250" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C250" s="85" t="s">
+      <c r="C250" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="D250" s="58"/>
-      <c r="F250" s="55" t="s">
+      <c r="D250" s="5"/>
+      <c r="F250" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G250" s="85" t="s">
+      <c r="G250" s="32" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="58" t="s">
+    <row r="251" spans="1:7" ht="243">
+      <c r="A251" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B251" s="58" t="s">
+      <c r="B251" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C251" s="85" t="s">
+      <c r="C251" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="D251" s="58"/>
-      <c r="F251" s="55" t="s">
+      <c r="D251" s="5"/>
+      <c r="F251" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G251" s="85" t="s">
+      <c r="G251" s="32" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="58" t="s">
+    <row r="252" spans="1:7" ht="243">
+      <c r="A252" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B252" s="58" t="s">
+      <c r="B252" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C252" s="85" t="s">
+      <c r="C252" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="D252" s="58"/>
-      <c r="F252" s="55" t="s">
+      <c r="D252" s="5"/>
+      <c r="F252" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G252" s="85" t="s">
+      <c r="G252" s="32" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="58" t="s">
+    <row r="253" spans="1:7" ht="121.5">
+      <c r="A253" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B253" s="58" t="s">
+      <c r="B253" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C253" s="85" t="s">
+      <c r="C253" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D253" s="58"/>
-      <c r="F253" s="58" t="s">
+      <c r="D253" s="5"/>
+      <c r="F253" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="G253" s="85" t="s">
+      <c r="G253" s="32" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="58" t="s">
+    <row r="254" spans="1:7" ht="135">
+      <c r="A254" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B254" s="58" t="s">
+      <c r="B254" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C254" s="85" t="s">
+      <c r="C254" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D254" s="58"/>
-      <c r="F254" s="58" t="s">
+      <c r="D254" s="5"/>
+      <c r="F254" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G254" s="85" t="s">
+      <c r="G254" s="32" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="58" t="s">
+    <row r="255" spans="1:7" ht="135">
+      <c r="A255" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B255" s="58" t="s">
+      <c r="B255" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C255" s="85" t="s">
+      <c r="C255" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D255" s="58"/>
-      <c r="F255" s="58" t="s">
+      <c r="D255" s="5"/>
+      <c r="F255" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="G255" s="85" t="s">
+      <c r="G255" s="32" t="s">
         <v>593</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_zyc_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_zyc_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9017860-77C1-40A5-8E14-BFD05F9FDB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E579A44-97AE-44D7-8F18-2FC567291A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="595">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -49,27 +49,18 @@
     <t>铁匠</t>
   </si>
   <si>
-    <t>Blacksmith</t>
-  </si>
-  <si>
     <t>旧王秘窟铸剑师监工</t>
   </si>
   <si>
     <t>监工</t>
   </si>
   <si>
-    <t>Overseer</t>
-  </si>
-  <si>
     <t>旧王秘窟铸剑师强盗头领1</t>
   </si>
   <si>
     <t>强盗头领</t>
   </si>
   <si>
-    <t>Bandit Leader</t>
-  </si>
-  <si>
     <t>旧王秘窟铸剑师强盗头领2</t>
   </si>
   <si>
@@ -91,51 +82,33 @@
     <t>小石头人</t>
   </si>
   <si>
-    <t>Stone Gnome</t>
-  </si>
-  <si>
     <t>沙漠绿洲副本风刃法师</t>
   </si>
   <si>
     <t>风刃法师头领</t>
   </si>
   <si>
-    <t>Windblade Grand Master</t>
-  </si>
-  <si>
     <t>沙漠绿洲巫师首领</t>
   </si>
   <si>
     <t>风刃法师长老</t>
   </si>
   <si>
-    <t>Windblade Elder</t>
-  </si>
-  <si>
     <t>天逸</t>
   </si>
   <si>
     <t>探险者天逸</t>
   </si>
   <si>
-    <t>Explorer Tausiq</t>
-  </si>
-  <si>
     <t>伐木工人</t>
   </si>
   <si>
-    <t>Lumberjack</t>
-  </si>
-  <si>
     <t>伐木场树人</t>
   </si>
   <si>
     <t>树人</t>
   </si>
   <si>
-    <t>Arborean</t>
-  </si>
-  <si>
     <t>阿拉尔山树人</t>
   </si>
   <si>
@@ -148,9 +121,6 @@
     <t>花妖</t>
   </si>
   <si>
-    <t>Dryad</t>
-  </si>
-  <si>
     <t>dg_skill:中立兵剑普攻</t>
   </si>
   <si>
@@ -160,18 +130,12 @@
     <t>巫女</t>
   </si>
   <si>
-    <t>Witch</t>
-  </si>
-  <si>
     <t>大沙漠乞丐</t>
   </si>
   <si>
     <t>乞丐</t>
   </si>
   <si>
-    <t>Beggar</t>
-  </si>
-  <si>
     <t>默认:哎，要是可以再年轻一些就好了！</t>
   </si>
   <si>
@@ -184,9 +148,6 @@
     <t>璃珠</t>
   </si>
   <si>
-    <t>Glass Beads</t>
-  </si>
-  <si>
     <t>大沙漠比约恩</t>
   </si>
   <si>
@@ -197,9 +158,6 @@
   </si>
   <si>
     <t>变异沙虫</t>
-  </si>
-  <si>
-    <t>Mutant Sandworm</t>
   </si>
   <si>
     <t>dg_skill:沙虫沙之刺大,1</t>
@@ -240,24 +198,15 @@
     <t>探险者石灭</t>
   </si>
   <si>
-    <t>Explorer Walid</t>
-  </si>
-  <si>
     <t>探险者桑哈</t>
   </si>
   <si>
-    <t>Explorer Salman</t>
-  </si>
-  <si>
     <t>BOSS花翅蛾</t>
   </si>
   <si>
     <t>花翅蛾</t>
   </si>
   <si>
-    <t>Sphinx Moth</t>
-  </si>
-  <si>
     <t>附身石灭</t>
   </si>
   <si>
@@ -270,9 +219,6 @@
     <t>旧日支配者</t>
   </si>
   <si>
-    <t>Ancient Dominator</t>
-  </si>
-  <si>
     <t>dg_skill:黑暗爪击,1</t>
   </si>
   <si>
@@ -282,15 +228,9 @@
     <t>机械师</t>
   </si>
   <si>
-    <t>Technician</t>
-  </si>
-  <si>
     <t>恶魔</t>
   </si>
   <si>
-    <t>Demon</t>
-  </si>
-  <si>
     <t>花卉乡住民甲</t>
   </si>
   <si>
@@ -312,27 +252,18 @@
     <t>大雪山住民甲</t>
   </si>
   <si>
-    <t>Zagros Mountains Dweller A</t>
-  </si>
-  <si>
     <t>北风镇住民乙</t>
   </si>
   <si>
     <t>大雪山住民乙</t>
   </si>
   <si>
-    <t>Zagros Mountains Dweller B</t>
-  </si>
-  <si>
     <t>北风镇住民丙</t>
   </si>
   <si>
     <t>大雪山住民丙</t>
   </si>
   <si>
-    <t>Zagros Mountains Dweller C</t>
-  </si>
-  <si>
     <t>北风镇瓦德</t>
   </si>
   <si>
@@ -354,161 +285,91 @@
     <t>被抓住的妇人</t>
   </si>
   <si>
-    <t>Female Hostage</t>
-  </si>
-  <si>
     <t>琥珀母亲</t>
   </si>
   <si>
-    <t>Omar's Mother</t>
-  </si>
-  <si>
     <t>瓦德家仆人</t>
   </si>
   <si>
     <t>仆人</t>
   </si>
   <si>
-    <t>Servant</t>
-  </si>
-  <si>
     <t>丢手串的人</t>
   </si>
   <si>
-    <t>Loser</t>
-  </si>
-  <si>
     <t>蝎族杀手</t>
   </si>
   <si>
-    <t>Dakn Assassin</t>
-  </si>
-  <si>
     <t>雕像</t>
-  </si>
-  <si>
-    <t>Statue</t>
   </si>
   <si>
     <t>默认:眼前的雕像散发着暗淡的光芒。
 故事礼物错误:好像不是这个。</t>
   </si>
   <si>
-    <t>默认:The statue in front of me glows with a dim light.
-故事礼物错误:Doesn't seem to be this one.</t>
-  </si>
-  <si>
     <t>石柱</t>
   </si>
   <si>
-    <t>Stone Pillar</t>
-  </si>
-  <si>
     <t>故事礼物错误:没有任何变化</t>
   </si>
   <si>
-    <t>故事礼物错误:Nothing happened...</t>
-  </si>
-  <si>
     <t>苦恼的铁匠</t>
   </si>
   <si>
-    <t>Stressed Blacksmith</t>
-  </si>
-  <si>
     <t>默认:这批货马上就要交了，怎么办呐！</t>
   </si>
   <si>
-    <t>默认:These goods need to be delivered soon. What am I to do?</t>
-  </si>
-  <si>
     <t>怪异的石头</t>
   </si>
   <si>
-    <t>Strange Stone</t>
-  </si>
-  <si>
     <t>小蝎子</t>
   </si>
   <si>
-    <t>Tiny Scorpion</t>
-  </si>
-  <si>
     <t>送水枯树</t>
   </si>
   <si>
     <t>枯树</t>
   </si>
   <si>
-    <t>Dead Tree</t>
-  </si>
-  <si>
     <t>送水绿树</t>
   </si>
   <si>
     <t>树</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>雄鹰贵族</t>
   </si>
   <si>
-    <t>Nasir Noble</t>
-  </si>
-  <si>
     <t>野马贵族</t>
   </si>
   <si>
-    <t>Akhal Noble</t>
-  </si>
-  <si>
     <t>王牌骑士</t>
   </si>
   <si>
-    <t>Ace Knight</t>
-  </si>
-  <si>
     <t>小男孩</t>
   </si>
   <si>
-    <t>Little Boy</t>
-  </si>
-  <si>
     <t>小女孩</t>
   </si>
   <si>
-    <t>Little Girl</t>
-  </si>
-  <si>
     <t>黑气</t>
   </si>
   <si>
     <t>黑火</t>
   </si>
   <si>
-    <t>Obsidian Flame</t>
-  </si>
-  <si>
     <t>守望老人</t>
   </si>
   <si>
     <t>老人</t>
   </si>
   <si>
-    <t>Old Man</t>
-  </si>
-  <si>
     <t>营地强盗</t>
   </si>
   <si>
     <t>强盗</t>
   </si>
   <si>
-    <t>Bandit</t>
-  </si>
-  <si>
     <t>白蔷薇巫女</t>
   </si>
   <si>
@@ -518,9 +379,6 @@
     <t>巫师</t>
   </si>
   <si>
-    <t>Wizard</t>
-  </si>
-  <si>
     <t>紫木镇失踪花妖</t>
   </si>
   <si>
@@ -533,72 +391,42 @@
     <t>少女</t>
   </si>
   <si>
-    <t>Girl</t>
-  </si>
-  <si>
     <t>鹰隼</t>
   </si>
   <si>
-    <t>Falcon</t>
-  </si>
-  <si>
     <t>熊</t>
   </si>
   <si>
-    <t>Bear</t>
-  </si>
-  <si>
     <t>豹子</t>
   </si>
   <si>
-    <t>Leopard</t>
-  </si>
-  <si>
     <t>狼</t>
   </si>
   <si>
-    <t>Wolf</t>
-  </si>
-  <si>
     <t>狐狸</t>
   </si>
   <si>
-    <t>Fox</t>
-  </si>
-  <si>
     <t>大雪怪</t>
   </si>
   <si>
-    <t>Large Yeti</t>
-  </si>
-  <si>
     <t>dg_skill:大熊拍击,1</t>
   </si>
   <si>
     <t>紫木镇镇长</t>
   </si>
   <si>
-    <t>Amaranth Town Chief</t>
-  </si>
-  <si>
     <t>紫木镇镇民</t>
   </si>
   <si>
     <t>镇民</t>
   </si>
   <si>
-    <t>Townsperson</t>
-  </si>
-  <si>
     <t>紫木镇守卫</t>
   </si>
   <si>
     <t>守卫</t>
   </si>
   <si>
-    <t>Guard</t>
-  </si>
-  <si>
     <t>雾依</t>
   </si>
   <si>
@@ -614,30 +442,18 @@
     <t>鹰钩鼻</t>
   </si>
   <si>
-    <t>Hook Nose</t>
-  </si>
-  <si>
     <t>沙风镇沙虫</t>
   </si>
   <si>
     <t>沙虫</t>
   </si>
   <si>
-    <t>Sandworm</t>
-  </si>
-  <si>
     <t>烂牙</t>
   </si>
   <si>
-    <t>Old Rot-Teeth</t>
-  </si>
-  <si>
     <t>打手</t>
   </si>
   <si>
-    <t>Brawler</t>
-  </si>
-  <si>
     <t>大癞头</t>
   </si>
   <si>
@@ -650,24 +466,15 @@
     <t>学者</t>
   </si>
   <si>
-    <t>Scholar</t>
-  </si>
-  <si>
     <t>那古卡老妪</t>
   </si>
   <si>
     <t>老妪</t>
   </si>
   <si>
-    <t>Old Woman</t>
-  </si>
-  <si>
     <t>伤疤脸</t>
   </si>
   <si>
-    <t>Scar Face</t>
-  </si>
-  <si>
     <t>幕牙</t>
   </si>
   <si>
@@ -677,9 +484,6 @@
     <t>鹰王</t>
   </si>
   <si>
-    <t>Nasir King</t>
-  </si>
-  <si>
     <t>阿楚</t>
   </si>
   <si>
@@ -689,9 +493,6 @@
     <t>怪物雾依</t>
   </si>
   <si>
-    <t>Monster Shia</t>
-  </si>
-  <si>
     <t>古达</t>
   </si>
   <si>
@@ -701,51 +502,30 @@
     <t>人脸树</t>
   </si>
   <si>
-    <t>Enchanted Tree</t>
-  </si>
-  <si>
     <t>紫色树妖</t>
   </si>
   <si>
-    <t>Purple Wood Sprite</t>
-  </si>
-  <si>
     <t>dg_skill:树人普攻,1</t>
   </si>
   <si>
     <t>白狮军团长</t>
   </si>
   <si>
-    <t>Shujae Sergeant</t>
-  </si>
-  <si>
     <t>鬣狗成员</t>
   </si>
   <si>
-    <t>Jackal Member</t>
-  </si>
-  <si>
     <t>年轻女性的声音</t>
   </si>
   <si>
-    <t>Young Woman's Voice</t>
-  </si>
-  <si>
     <t>白狮士兵</t>
   </si>
   <si>
-    <t>Shujae Soldier</t>
-  </si>
-  <si>
     <t>白狮士兵2</t>
   </si>
   <si>
     <t>白狮队长</t>
   </si>
   <si>
-    <t>Shujae Captain</t>
-  </si>
-  <si>
     <t>蓝伊莎</t>
   </si>
   <si>
@@ -761,18 +541,12 @@
     <t>白狮首领</t>
   </si>
   <si>
-    <t>Shujae Chief</t>
-  </si>
-  <si>
     <t>骆铃集市商人</t>
   </si>
   <si>
     <t>商人</t>
   </si>
   <si>
-    <t>Merchant</t>
-  </si>
-  <si>
     <t>金沙表演团乞丐</t>
   </si>
   <si>
@@ -782,15 +556,9 @@
     <t>农夫</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
     <t>白狮侍女</t>
   </si>
   <si>
-    <t>Shujae Maiden</t>
-  </si>
-  <si>
     <t>通缉强盗头领</t>
   </si>
   <si>
@@ -803,9 +571,6 @@
     <t>逃犯</t>
   </si>
   <si>
-    <t>Fugitive</t>
-  </si>
-  <si>
     <t>通缉逃犯B</t>
   </si>
   <si>
@@ -815,15 +580,9 @@
     <t>逃兵领袖</t>
   </si>
   <si>
-    <t>Deserter Leader</t>
-  </si>
-  <si>
     <t>不知名男人</t>
   </si>
   <si>
-    <t>Unknown Man</t>
-  </si>
-  <si>
     <t>格瓦</t>
   </si>
   <si>
@@ -839,30 +598,18 @@
     <t>旅行者</t>
   </si>
   <si>
-    <t>Traveler</t>
-  </si>
-  <si>
     <t>商队骆驼</t>
   </si>
   <si>
-    <t>Caravan Camel</t>
-  </si>
-  <si>
     <t>商队头领</t>
   </si>
   <si>
-    <t>Caravan Leader</t>
-  </si>
-  <si>
     <t>初始营地旅行者</t>
   </si>
   <si>
     <t>星族女巫</t>
   </si>
   <si>
-    <t>Furud Witch</t>
-  </si>
-  <si>
     <t>火魔人</t>
   </si>
   <si>
@@ -872,36 +619,21 @@
     <t>巨型火魔人</t>
   </si>
   <si>
-    <t>Giant Ifrit</t>
-  </si>
-  <si>
     <t>火魔人首领</t>
   </si>
   <si>
     <t>火魔暗主</t>
   </si>
   <si>
-    <t>Ifrit Void Master</t>
-  </si>
-  <si>
     <t>勇敢的战士</t>
   </si>
   <si>
-    <t>Brave Warrior</t>
-  </si>
-  <si>
     <t>被救女子</t>
   </si>
   <si>
-    <t>Rescued Woman</t>
-  </si>
-  <si>
     <t>流浪画家</t>
   </si>
   <si>
-    <t>Wandering Painter</t>
-  </si>
-  <si>
     <t>流浪画师</t>
   </si>
   <si>
@@ -926,42 +658,24 @@
     <t>村民甲</t>
   </si>
   <si>
-    <t>Villager A</t>
-  </si>
-  <si>
     <t>村民乙</t>
   </si>
   <si>
-    <t>Villager B</t>
-  </si>
-  <si>
     <t>村民丙</t>
   </si>
   <si>
-    <t>Villager C</t>
-  </si>
-  <si>
     <t>村民丁</t>
   </si>
   <si>
-    <t>Villager D</t>
-  </si>
-  <si>
     <t>村长</t>
   </si>
   <si>
-    <t>Village Elder</t>
-  </si>
-  <si>
     <t>火魔人首领伪</t>
   </si>
   <si>
     <t>山狼</t>
   </si>
   <si>
-    <t>Mountain Wolf</t>
-  </si>
-  <si>
     <t>曼玡</t>
   </si>
   <si>
@@ -983,15 +697,9 @@
     <t>小七</t>
   </si>
   <si>
-    <t>Little Jarah</t>
-  </si>
-  <si>
     <t>小敏</t>
   </si>
   <si>
-    <t>Little Hewez</t>
-  </si>
-  <si>
     <t>阿力</t>
   </si>
   <si>
@@ -1007,9 +715,6 @@
     <t>木工</t>
   </si>
   <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
     <t>阿洪</t>
   </si>
   <si>
@@ -1019,24 +724,15 @@
     <t>大河女神</t>
   </si>
   <si>
-    <t>River Goddess</t>
-  </si>
-  <si>
     <t>大河女神忧虑</t>
   </si>
   <si>
     <t>过路的旅人</t>
   </si>
   <si>
-    <t>Passing Traveler</t>
-  </si>
-  <si>
     <t>猛汉甲</t>
   </si>
   <si>
-    <t>Fierce Guy A</t>
-  </si>
-  <si>
     <t>阿曼莎</t>
   </si>
   <si>
@@ -1046,15 +742,9 @@
     <t>毒蝎部落卫兵</t>
   </si>
   <si>
-    <t>Dakn Guard</t>
-  </si>
-  <si>
     <t>毒蝎部落秘宝侍者</t>
   </si>
   <si>
-    <t>Dakn Treasure Keeper</t>
-  </si>
-  <si>
     <t>苍骐</t>
   </si>
   <si>
@@ -1067,9 +757,6 @@
     <t>装扮师</t>
   </si>
   <si>
-    <t>Haberdasher</t>
-  </si>
-  <si>
     <t>大雪山装扮师</t>
   </si>
   <si>
@@ -1085,9 +772,6 @@
     <t>破军</t>
   </si>
   <si>
-    <t>Deserter</t>
-  </si>
-  <si>
     <t>普洛</t>
   </si>
   <si>
@@ -1109,15 +793,9 @@
     <t>黑甲骑士</t>
   </si>
   <si>
-    <t>Dark Knight</t>
-  </si>
-  <si>
     <t>黑甲军头目</t>
   </si>
   <si>
-    <t>Dark Legion Chief</t>
-  </si>
-  <si>
     <t>三石堡住民甲</t>
   </si>
   <si>
@@ -1127,15 +805,9 @@
     <t>北风镇东聚落村长</t>
   </si>
   <si>
-    <t>Qebui Keep Leader (East Outpost)</t>
-  </si>
-  <si>
     <t>小老头</t>
   </si>
   <si>
-    <t>Old Codger</t>
-  </si>
-  <si>
     <t>乌尤仆人</t>
   </si>
   <si>
@@ -1148,48 +820,30 @@
     <t>巨龙化身</t>
   </si>
   <si>
-    <t>Dragon Form</t>
-  </si>
-  <si>
     <t>白雾村村民甲</t>
   </si>
   <si>
     <t>白雾村村民</t>
   </si>
   <si>
-    <t>Misty Village Resident</t>
-  </si>
-  <si>
     <t>默认:（左臂被绷带包得严严实实）疼……疼……</t>
   </si>
   <si>
-    <t>默认:(Their left arm is tightly bandaged) Oh... the pain...</t>
-  </si>
-  <si>
     <t>白雾村村民乙</t>
   </si>
   <si>
     <t>默认:（全身各处都包裹着绷带，血浸染了大部分绷带）</t>
   </si>
   <si>
-    <t>默认:(They have bandages all over their body, most of them soaked in blood).</t>
-  </si>
-  <si>
     <t>白雾村村民丙</t>
   </si>
   <si>
     <t>默认:（正在给自己的小腹上药，你可以看到他的腹部有一道几乎横跨他整个腹部的伤口，并且没有一点愈合的迹象）</t>
   </si>
   <si>
-    <t>默认:(While he applies medicine to his lower abdomen, you notice there's a wound that almost crosses his entire body. It looks like it's not healing at all).</t>
-  </si>
-  <si>
     <t>白雾村村长</t>
   </si>
   <si>
-    <t>Misty Village Elder</t>
-  </si>
-  <si>
     <t>驻守卫兵甲</t>
   </si>
   <si>
@@ -1200,9 +854,6 @@
   </si>
   <si>
     <t>狩猎山谷长老</t>
-  </si>
-  <si>
-    <t>Hunter's Valley Elder</t>
   </si>
   <si>
     <t>年轻赫连千百</t>
@@ -1219,54 +870,34 @@
 BattleVoice:BattleVoice.helianqianbai</t>
   </si>
   <si>
-    <t>Desc:Alaf Jahim was a mere youth when he came to the Great Desert to earn his living as a caravan escort. Today, he is well renowned as muscle for hire. He has escorted too many travelers to count; the bandits he's defeated too numerous to mention. But time has not spared this hero. Alaf Jahim is now over 60 years old and isn't as energetic as he was in his youth. The more difficult escorting tasks are slowly moving beyond his grasp, but his name still strikes fear in the hearts of bandits. His legendary status amongst the sands remains.
-Voice:NpcVoice.helianqianbai
-BattleVoice:BattleVoice.helianqianbai</t>
-  </si>
-  <si>
     <t>赫连商队老板</t>
   </si>
   <si>
     <t>商队老板</t>
   </si>
   <si>
-    <t>Caravan Boss</t>
-  </si>
-  <si>
     <t>赫连商队随从</t>
   </si>
   <si>
     <t>商队随从</t>
   </si>
   <si>
-    <t>Caravan Follower</t>
-  </si>
-  <si>
     <t>劫匪马契</t>
   </si>
   <si>
     <t>劫匪头子</t>
   </si>
   <si>
-    <t>Outlaw Leader</t>
-  </si>
-  <si>
     <t>马契属下甲</t>
   </si>
   <si>
     <t>劫匪甲</t>
   </si>
   <si>
-    <t>Outlaw A</t>
-  </si>
-  <si>
     <t>马契属下乙</t>
   </si>
   <si>
     <t>劫匪乙</t>
-  </si>
-  <si>
-    <t>Outlaw B</t>
   </si>
   <si>
     <t>赫连商队老板2</t>
@@ -1306,51 +937,30 @@
     <t>青年甲</t>
   </si>
   <si>
-    <t>Youth A</t>
-  </si>
-  <si>
     <t>青年乙</t>
   </si>
   <si>
-    <t>Youth B</t>
-  </si>
-  <si>
     <t>巫师莫尼</t>
   </si>
   <si>
-    <t>Wizard Noor</t>
-  </si>
-  <si>
     <t>小蜥蜴</t>
   </si>
   <si>
-    <t>Small Lizard</t>
-  </si>
-  <si>
     <t>北荒村村长</t>
   </si>
   <si>
-    <t>Mahjur Village Elder</t>
-  </si>
-  <si>
     <t>野马流浪汉</t>
   </si>
   <si>
     <t>流浪汉</t>
   </si>
   <si>
-    <t>Vagabond</t>
-  </si>
-  <si>
     <t>野马主事</t>
   </si>
   <si>
     <t>主事</t>
   </si>
   <si>
-    <t>Chief</t>
-  </si>
-  <si>
     <t>野马富豪</t>
   </si>
   <si>
@@ -1366,15 +976,9 @@
     <t>短工</t>
   </si>
   <si>
-    <t>Handy Man</t>
-  </si>
-  <si>
     <t>美丽妇女</t>
   </si>
   <si>
-    <t>Beautiful Woman</t>
-  </si>
-  <si>
     <t>野马生病小孩</t>
   </si>
   <si>
@@ -1387,21 +991,12 @@
     <t>犹豫的冒险者</t>
   </si>
   <si>
-    <t>Hesitant Adventurer</t>
-  </si>
-  <si>
     <t>焦急的中年人</t>
   </si>
   <si>
-    <t>Anxious Man</t>
-  </si>
-  <si>
     <t>羚羊战士</t>
   </si>
   <si>
-    <t>Oryx Warrior</t>
-  </si>
-  <si>
     <t>小伊</t>
   </si>
   <si>
@@ -1417,18 +1012,12 @@
     <t>掘墓人</t>
   </si>
   <si>
-    <t>Gravedigger</t>
-  </si>
-  <si>
     <t>红石城骗子</t>
   </si>
   <si>
     <t>奇怪行商</t>
   </si>
   <si>
-    <t>Odd Trader</t>
-  </si>
-  <si>
     <t>蜘蛛洞线索A</t>
   </si>
   <si>
@@ -1441,9 +1030,6 @@
     <t>垂死士兵</t>
   </si>
   <si>
-    <t>Dying Soldier</t>
-  </si>
-  <si>
     <t>蜘蛛洞阿德</t>
   </si>
   <si>
@@ -1481,9 +1067,6 @@
   </si>
   <si>
     <t>神秘的声音</t>
-  </si>
-  <si>
-    <t>Mysterious Voice</t>
   </si>
   <si>
     <t>扎法尔</t>
@@ -1519,27 +1102,12 @@
 recruit_msg:你值得我追随，走吧，以后请多多指教了。</t>
   </si>
   <si>
-    <t>喜欢的礼物:I like &lt;color=red&gt;music&lt;/color&gt; and a few &lt;color=red&gt;sad&lt;/color&gt; or &lt;color=red&gt;romantic&lt;/color&gt; things. Emotions are very important to a dancer.
-hello:I like to dance~ One day I will dance on the great stage of Jamal City.
-refuse_recruit_0:I think we really get along, but... I won't give up my dream for you.
-refuse_recruit_1:I like to dance. If you want me to fight... I'm sorry.
-refuse_recruit_2:Are you serious? Okay. It's fine, as long as you were joking.
-refuse_recruit_3:Well, I'm not going to lie to you. I don't like you very much.
-recruit_msg:You are worth following. Let's go, I hope you will advise me in the future.</t>
-  </si>
-  <si>
     <t>Like:音乐|浪漫|忧伤
 Desc:她常常在河边起舞，水中的倒影是她唯一的观众。成为一名王家级别的舞者是希云娜从小的梦想。在旧王朝覆灭后，雄鹰部落占领了王都骆驼城，但战争没有结束，纷争仍在继续，骆驼城一直以来都处于高度警戒状态，没有通行证的希云娜连骆驼城城内的模样都无从知晓。希云娜一直在努力练习着，她梦想着有一天能够加入骆驼城内最著名的歌舞团，学习更加专业的舞技，站上最广的表演舞台，让台下的观众们从她的舞蹈中能够收获幸福感。
 Voice:NpcVoice.xiyunna
 BattleVoice:BattleVoice.xiyunna</t>
   </si>
   <si>
-    <t>Like:音乐|浪漫|忧伤
-Desc:She often dances by the river, her reflection in the river is her only audience. Ever since she was a girl, Umara dreamed of becoming a royal dancer. When the old king was toppled, the Nasir occupied Jamal City, the old capital. When the war didn't end and the fighting continued, Jamal City continued to be on constant alert. Umara didn't even know what Jamal City looked like, nor did she have the papers to go there. Still, Umara practices every day so that she can join the most famous group of entertainers in the city and become a professional dancer. When she stands on the greatest stage in the land, the audience beneath her will know the greatest happiness.
-Voice:NpcVoice.xiyunna
-BattleVoice:BattleVoice.xiyunna</t>
-  </si>
-  <si>
     <t>希云娜盗贼</t>
   </si>
   <si>
@@ -1555,13 +1123,7 @@
     <t>神秘人</t>
   </si>
   <si>
-    <t>Mysterious Man</t>
-  </si>
-  <si>
     <t>恶魔领主</t>
-  </si>
-  <si>
-    <t>Demon Lord</t>
   </si>
   <si>
     <t>attached_script:希云娜BOSS2</t>
@@ -1585,27 +1147,12 @@
 recruit_msg:好吧，希望你能帮我让御气术名扬天下。</t>
   </si>
   <si>
-    <t>喜欢的礼物:A few &lt;color=red&gt;sad&lt;/color&gt; things resonate with my soul. Aside from that, I hope to come across some &lt;color=red&gt;special gear&lt;/color&gt; to assist me in battle.
-hello:My family's fighting style will never die so long as I'm around.
-refuse_recruit_0:You know I bear a heavy responsibility. I cannot accept.
-refuse_recruit_1:You're not the kind of person I admire.
-refuse_recruit_2:No, and don't ask again.
-refuse_recruit_3:I can't control my anger much longer. Leave now.
-recruit_msg:Fine. I hope you can introduce my fighting style to the whole world.</t>
-  </si>
-  <si>
     <t>Like:特殊装备|忧伤
 Desc:韩靖出生于武道世家，他们家族的人御气为力，以气为刃。战争时代，擅长单人作战的韩靖一家渐渐不受重视，家中不少人不得已转了行，御气之法濒临失传。韩靖是他这一辈唯一学会御气的年轻人，他的肩上背负着的不仅仅是重振家族荣耀的重担，还有将御气术传承下去的使命。
 Voice:NpcVoice.hanjing
 BattleVoice:BattleVoice.hanjing</t>
   </si>
   <si>
-    <t>Like:特殊装备|忧伤
-Desc: Mathali was born in a family steeped in warcraft. Members of the family could use mana to empower their blades. When the war began, Mathali's family, who only excelled in duels, were ignored. Many members of the family had to find new careers. Their unique fighting techniques were on the verge of being lost forever. Mathali is the only youth in his generation who has learned how to use mana to fight. On his shoulders rest not only the burden of reviving the family's glory, but also the mission of passing on these secret arts.
-Voice:NpcVoice.hanjing
-BattleVoice:BattleVoice.hanjing</t>
-  </si>
-  <si>
     <t>小露</t>
   </si>
   <si>
@@ -1618,19 +1165,10 @@
     <t>小露父亲</t>
   </si>
   <si>
-    <t>Yara's Father</t>
-  </si>
-  <si>
     <t>异教徒</t>
   </si>
   <si>
-    <t>Heathen</t>
-  </si>
-  <si>
     <t>路过的学者</t>
-  </si>
-  <si>
-    <t>Wandering Scholar</t>
   </si>
   <si>
     <t>任务萨加</t>
@@ -1651,15 +1189,6 @@
 recruit_msg:希望你能带领我收获更多的痛苦与消亡。</t>
   </si>
   <si>
-    <t>喜欢的礼物:I like it when people are &lt;color=red&gt;sad and in pain&lt;/color&gt;. I also like to spend time looking at &lt;color=red&gt;paintings&lt;/color&gt;.
-hello:I like your morose expression...
-refuse_recruit_0:Hey, you're not quite there yet.
-refuse_recruit_1:Ah... it's still not enough to make me bend the knee.
-refuse_recruit_2:You are delusional.
-refuse_recruit_3:You are not even worth grinding up for arcane components.
-recruit_msg:I hope you can help me reap more pain and suffering.</t>
-  </si>
-  <si>
     <t>Like:绘画|忧伤
 WildMonsterKiller:1
 Robber:100
@@ -1668,14 +1197,6 @@
 BattleVoice:BattleVoice.sajia</t>
   </si>
   <si>
-    <t>Like:绘画|忧伤
-WildMonsterKiller:1
-Robber:100
-Desc:Sanjay is a wizard from beyond the river. He came to this land for some gruesome research - how to draw arcane power from the chaos of war, turning pain and tragedy into sustenance.
-Voice:NpcVoice.sajia
-BattleVoice:BattleVoice.sajia</t>
-  </si>
-  <si>
     <t>老婆婆</t>
   </si>
   <si>
@@ -1697,9 +1218,6 @@
     <t>线人</t>
   </si>
   <si>
-    <t>Informant</t>
-  </si>
-  <si>
     <t>蕊儿</t>
   </si>
   <si>
@@ -1709,15 +1227,9 @@
     <t>蕊儿的父亲</t>
   </si>
   <si>
-    <t>Rubi's Father</t>
-  </si>
-  <si>
     <t>药贩子</t>
   </si>
   <si>
-    <t>Herbalist</t>
-  </si>
-  <si>
     <t>国锡</t>
   </si>
   <si>
@@ -1727,9 +1239,6 @@
     <t>年轻的巫师</t>
   </si>
   <si>
-    <t>Young Wizard</t>
-  </si>
-  <si>
     <t>奥利尔</t>
   </si>
   <si>
@@ -1739,9 +1248,6 @@
     <t>白发男</t>
   </si>
   <si>
-    <t>White-haired Stranger</t>
-  </si>
-  <si>
     <t>柯墨斯</t>
   </si>
   <si>
@@ -1757,9 +1263,6 @@
     <t>衣衫褴褛的男人</t>
   </si>
   <si>
-    <t>Threadbare Man</t>
-  </si>
-  <si>
     <t>巴凯勒</t>
   </si>
   <si>
@@ -1769,18 +1272,12 @@
     <t>猎人</t>
   </si>
   <si>
-    <t>Hunter</t>
-  </si>
-  <si>
     <t>黑崖心灵巫师</t>
   </si>
   <si>
     <t>心灵巫师？</t>
   </si>
   <si>
-    <t>Spiritmancer?</t>
-  </si>
-  <si>
     <t>巴纱</t>
   </si>
   <si>
@@ -1811,19 +1308,10 @@
     <t>孩子</t>
   </si>
   <si>
-    <t>Child</t>
-  </si>
-  <si>
     <t>女人</t>
   </si>
   <si>
-    <t>Woman</t>
-  </si>
-  <si>
     <t>酒馆恶霸</t>
-  </si>
-  <si>
-    <t>Tavern Tyrant</t>
   </si>
   <si>
     <t>fight_skills:冲刺重拳|丢酒瓶|踩脚指|蓄力冲刺
@@ -1836,9 +1324,6 @@
     <t>酒馆无赖</t>
   </si>
   <si>
-    <t>Tavern Rogue</t>
-  </si>
-  <si>
     <t>fight_skills:膝盖顶|丢酒瓶|踩脚指|饮酒
 fight_dgskill:刺拳,1
 SYNC_PLAYER_LEVEL:1
@@ -1849,9 +1334,6 @@
     <t>酒馆好汉</t>
   </si>
   <si>
-    <t>Tavern Hero</t>
-  </si>
-  <si>
     <t>fight_skills:飞腿|吼叫|饮酒
 fight_dgskill:直拳,1
 SYNC_PLAYER_LEVEL:1
@@ -1884,6 +1366,527 @@
   <si>
     <t>dg_skill:中立兵剑普攻
 attached_script:阿拉尔山剧情_阶段3花妖雇佣兵挂载</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Líder dos Bandidos</t>
+  </si>
+  <si>
+    <t>Gnomo de Pedra</t>
+  </si>
+  <si>
+    <t>Grande Mestre da Lâmina do Vento</t>
+  </si>
+  <si>
+    <t>Ancião da Lâmina do Vento</t>
+  </si>
+  <si>
+    <t>Explorador Tausiq</t>
+  </si>
+  <si>
+    <t>Lenhador</t>
+  </si>
+  <si>
+    <t>Arbóreo</t>
+  </si>
+  <si>
+    <t>Dríade</t>
+  </si>
+  <si>
+    <t>Bruxa</t>
+  </si>
+  <si>
+    <t>Mendigo</t>
+  </si>
+  <si>
+    <t>Contas de Vidro</t>
+  </si>
+  <si>
+    <t>Verme de Areia Mutante</t>
+  </si>
+  <si>
+    <t>Explorador Walid</t>
+  </si>
+  <si>
+    <t>Explorador Salman</t>
+  </si>
+  <si>
+    <t>Mariposa Esfinge</t>
+  </si>
+  <si>
+    <t>Dominador Ancestral</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Habitante</t>
+  </si>
+  <si>
+    <t>Habitante das Montanhas de Zagros A</t>
+  </si>
+  <si>
+    <t>Habitante das Montanhas de Zagros B</t>
+  </si>
+  <si>
+    <t>Habitante das Montanhas de Zagros C</t>
+  </si>
+  <si>
+    <t>Refém Feminina</t>
+  </si>
+  <si>
+    <t>Mãe de Omar</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Perdedor</t>
+  </si>
+  <si>
+    <t>Assassino Dakn</t>
+  </si>
+  <si>
+    <t>Estátua</t>
+  </si>
+  <si>
+    <t>Pilar de Pedra</t>
+  </si>
+  <si>
+    <t>Ferreiro Estressado</t>
+  </si>
+  <si>
+    <t>Pedra Estranha</t>
+  </si>
+  <si>
+    <t>Escorpião Pequeno</t>
+  </si>
+  <si>
+    <t>Árvore Morta</t>
+  </si>
+  <si>
+    <t>Árvore</t>
+  </si>
+  <si>
+    <t>Nobre de Nasir</t>
+  </si>
+  <si>
+    <t>Nobre de Akhal</t>
+  </si>
+  <si>
+    <t>Cavaleiro Ás</t>
+  </si>
+  <si>
+    <t>Garotinha</t>
+  </si>
+  <si>
+    <t>Garotinho</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>Velho</t>
+  </si>
+  <si>
+    <t>Bandido</t>
+  </si>
+  <si>
+    <t>Mago</t>
+  </si>
+  <si>
+    <t>Garota</t>
+  </si>
+  <si>
+    <t>Falcão</t>
+  </si>
+  <si>
+    <t>Urso</t>
+  </si>
+  <si>
+    <t>Leopardo</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Raposa</t>
+  </si>
+  <si>
+    <t>Yeti Grande</t>
+  </si>
+  <si>
+    <t>Chefe da Cidade de Amaranth</t>
+  </si>
+  <si>
+    <t>Cidadão</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Nariz de Gancho</t>
+  </si>
+  <si>
+    <t>Verme de Areia</t>
+  </si>
+  <si>
+    <t>Dentes Podres</t>
+  </si>
+  <si>
+    <t>Lutador</t>
+  </si>
+  <si>
+    <t>Erudito</t>
+  </si>
+  <si>
+    <t>Velha</t>
+  </si>
+  <si>
+    <t>Cara de Cicatriz</t>
+  </si>
+  <si>
+    <t>Rei Nasir</t>
+  </si>
+  <si>
+    <t>Shia Monstruoso</t>
+  </si>
+  <si>
+    <t>Árvore Encantada</t>
+  </si>
+  <si>
+    <t>Espírito de Madeira Púrpura</t>
+  </si>
+  <si>
+    <t>Sargento Shujae</t>
+  </si>
+  <si>
+    <t>Membro do Jackal</t>
+  </si>
+  <si>
+    <t>Voz de Jovem Mulher</t>
+  </si>
+  <si>
+    <t>Soldado Shujae</t>
+  </si>
+  <si>
+    <t>Capitão Shujae</t>
+  </si>
+  <si>
+    <t>Chefe Shujae</t>
+  </si>
+  <si>
+    <t>Mercador</t>
+  </si>
+  <si>
+    <t>Fazendeiro</t>
+  </si>
+  <si>
+    <t>Donzela Shujae</t>
+  </si>
+  <si>
+    <t>Fugitivo</t>
+  </si>
+  <si>
+    <t>Líder dos Desertores</t>
+  </si>
+  <si>
+    <t>Homem Desconhecido</t>
+  </si>
+  <si>
+    <t>Viajante</t>
+  </si>
+  <si>
+    <t>Camelo de Caravana</t>
+  </si>
+  <si>
+    <t>Líder da Caravana</t>
+  </si>
+  <si>
+    <t>Bruxa Furud</t>
+  </si>
+  <si>
+    <t>Ifrit Gigante</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Guerreiro Corajoso</t>
+  </si>
+  <si>
+    <t>Mulher Resgatada</t>
+  </si>
+  <si>
+    <t>Pintor Errante</t>
+  </si>
+  <si>
+    <t>Aldeão A</t>
+  </si>
+  <si>
+    <t>Aldeão B</t>
+  </si>
+  <si>
+    <t>Aldeão C</t>
+  </si>
+  <si>
+    <t>Aldeão D</t>
+  </si>
+  <si>
+    <t>Ancião da Vila</t>
+  </si>
+  <si>
+    <t>Lobo da Montanha</t>
+  </si>
+  <si>
+    <t>Pequeno Jarah</t>
+  </si>
+  <si>
+    <t>Pequeno Hewez</t>
+  </si>
+  <si>
+    <t>Carpinteiro</t>
+  </si>
+  <si>
+    <t>Deusa do Rio</t>
+  </si>
+  <si>
+    <t>Viajante de Passagem</t>
+  </si>
+  <si>
+    <t>Cara Feroz A</t>
+  </si>
+  <si>
+    <t>Guarda Dakn</t>
+  </si>
+  <si>
+    <t>Guardião do Tesouro Dakn</t>
+  </si>
+  <si>
+    <t>Alfaiate</t>
+  </si>
+  <si>
+    <t>Desertor</t>
+  </si>
+  <si>
+    <t>Cavaleiro das Trevas</t>
+  </si>
+  <si>
+    <t>Chefe da Legião das Trevas</t>
+  </si>
+  <si>
+    <t>Líder do Forte Qebui (Posto Avançado Leste)</t>
+  </si>
+  <si>
+    <t>Velho Rabugento</t>
+  </si>
+  <si>
+    <t>Forma de Dragão</t>
+  </si>
+  <si>
+    <t>Habitante da Vila Nebulosa</t>
+  </si>
+  <si>
+    <t>Ancião da Vila Nebulosa</t>
+  </si>
+  <si>
+    <t>Ancião do Vale dos Caçadores</t>
+  </si>
+  <si>
+    <t>Chefe da Caravana</t>
+  </si>
+  <si>
+    <t>Seguidor da Caravana</t>
+  </si>
+  <si>
+    <t>Bandido A</t>
+  </si>
+  <si>
+    <t>Bandido B</t>
+  </si>
+  <si>
+    <t>Jovem A</t>
+  </si>
+  <si>
+    <t>Jovem B</t>
+  </si>
+  <si>
+    <t>Mago Noor</t>
+  </si>
+  <si>
+    <t>Lagarto Pequeno</t>
+  </si>
+  <si>
+    <t>Ancião da Vila Mahjur</t>
+  </si>
+  <si>
+    <t>Vagabundo</t>
+  </si>
+  <si>
+    <t>Chefe</t>
+  </si>
+  <si>
+    <t>Homem Habilidoso</t>
+  </si>
+  <si>
+    <t>Mulher Bonita</t>
+  </si>
+  <si>
+    <t>Aventureiro Hesitante</t>
+  </si>
+  <si>
+    <t>Homem Ansioso</t>
+  </si>
+  <si>
+    <t>Guerreiro Oryx</t>
+  </si>
+  <si>
+    <t>Coveiro</t>
+  </si>
+  <si>
+    <t>Comerciante Estranho</t>
+  </si>
+  <si>
+    <t>Soldado Moribundo</t>
+  </si>
+  <si>
+    <t>Voz Misteriosa</t>
+  </si>
+  <si>
+    <t>Homem Misterioso</t>
+  </si>
+  <si>
+    <t>Lorde Demônio</t>
+  </si>
+  <si>
+    <t>Pai de Yara</t>
+  </si>
+  <si>
+    <t>Pagão</t>
+  </si>
+  <si>
+    <t>Erudito Errante</t>
+  </si>
+  <si>
+    <t>Informante</t>
+  </si>
+  <si>
+    <t>Pai de Rubi</t>
+  </si>
+  <si>
+    <t>Herbalista</t>
+  </si>
+  <si>
+    <t>Jovem Mago</t>
+  </si>
+  <si>
+    <t>Estranho de Cabelos Brancos</t>
+  </si>
+  <si>
+    <t>Homem Esfarrapado</t>
+  </si>
+  <si>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Espiritomancer?</t>
+  </si>
+  <si>
+    <t>Criança</t>
+  </si>
+  <si>
+    <t>Mulher</t>
+  </si>
+  <si>
+    <t>Tirano da Taverna</t>
+  </si>
+  <si>
+    <t>Ladrão da Taverna</t>
+  </si>
+  <si>
+    <t>Herói da Taverna</t>
+  </si>
+  <si>
+    <t>Arbórea</t>
+  </si>
+  <si>
+    <t>默认:A estátua à minha frente brilha com uma luz fraca.
+故事礼物错误:Parece que não é esta.</t>
+  </si>
+  <si>
+    <t>故事礼物错误:Nada aconteceu...</t>
+  </si>
+  <si>
+    <t>默认:Essas mercadorias precisam ser entregues em breve. O que devo fazer?</t>
+  </si>
+  <si>
+    <t>默认:(Seu braço esquerdo está firmemente enfaixado) Ah... a dor…</t>
+  </si>
+  <si>
+    <t>默认:(Ele tem bandagens por todo o corpo, a maioria delas encharcada de sangue).</t>
+  </si>
+  <si>
+    <t>默认:(Enquanto ele aplica remédio no abdômen inferior, você percebe que há uma ferida que quase atravessa todo o corpo dele. Parece que não está cicatrizando de jeito nenhum).</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Gosto de &lt;color=red&gt;música&lt;/color&gt; e algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ou &lt;color=red&gt;românticas&lt;/color&gt;. Emoções são muito importantes para um dançarino.
+hello:Eu gosto de dançar ~ Um dia eu vou dançar no grande palco da cidade de Jamal.
+refuse_recruit_0:Acho que realmente nos damos bem, mas... não vou desistir do meu sonho por você.
+refuse_recruit_1:Eu gosto de dançar. Se você quiser que eu lute... sinto muito.
+refuse_recruit_2: Você está falando sério? Ok. Tudo bem, contanto que você esteja brincando.
+refuse_recruit_3:Bem, eu não vou mentir para você. Eu não gosto muito de você.
+recruit_msg:Você vale a pena seguir. Vamos, espero que você me aconselhe no futuro.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Algumas coisas &lt;color=red&gt;tristes&lt;/color&gt; ressoam com a minha alma. Além disso, espero encontrar algum &lt;color=red&gt;equipamento especial&lt;/color&gt; para me ajudar na batalha.
+hello:O estilo de luta da minha família nunca morrerá enquanto eu estiver por perto.
+refuse_recruit_0:Você sabe que carrego uma grande responsabilidade. Não posso aceitar.
+refuse_recruit_1:Você não é o tipo de pessoa que admiro.
+refuse_recruit_2:Não, e não pergunte novamente.
+refuse_recruit_3:Não consigo controlar minha raiva por muito mais tempo. Saia agora.
+recruit_msg:Está bem. Espero que você possa apresentar meu estilo de luta ao mundo inteiro.</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Gosto quando as pessoas estão &lt;color=red&gt;tristes e com dor&lt;/color&gt;. Também gosto de passar o tempo olhando para &lt;color=red&gt;pinturas&lt;/color&gt;.
+hello:Gosto da sua expressão sombria...
+refuse_recruit_0:Ei, você ainda não chegou lá.
+refuse_recruit_1:Ah... ainda não é suficiente para me fazer dobrar os joelhos.
+refuse_recruit_2:Você está delirando.
+refuse_recruit_3:Nem vale a pena gastar meus conhecimentos arcanos com você.
+recruit_msg:Espero que você possa me ajudar a colher mais dor e sofrimento.</t>
+  </si>
+  <si>
+    <t>Desc:Alaf Jahim era um mero jovem quando veio para o Grande Deserto para ganhar a vida como escolta de caravanas. Hoje, ele é bem conhecido como músculo para alugar. Ele escoltou tantos viajantes que não dá para contar; os bandidos que ele derrotou são numerosos demais para mencionar. Mas o tempo não poupou este herói. Alaf Jahim tem agora mais de 60 anos e não é tão enérgico como era na sua juventude. As tarefas de escolta mais difíceis estão lentamente se movendo para além de seu alcance, mas seu nome ainda causa medo nos corações dos bandidos. Seu status lendário entre as areias permanece.
+Voice:NpcVoice.helianqianbai
+BattleVoice:BattleVoice.helianqianbai</t>
+  </si>
+  <si>
+    <t>Like:音乐|浪漫|忧伤
+Desc:Umara gosta de música, romance e tristeza. Ela costuma dançar perto do rio, seu reflexo no rio é seu único público. Desde que era menina, Umara sonhava em se tornar uma dançarina real. Quando o velho rei foi derrubado, os Nasir ocuparam a cidade de Jamal, a antiga capital. Quando a guerra não terminou e a luta continuou, a cidade de Jamal continuou em constante alerta. Umara nem sabia como era a cidade de Jamal, nem tinha os papéis para ir lá. Ainda assim, Umara pratica todos os dias para poder se juntar ao grupo de artistas mais famoso da cidade e se tornar uma dançarina profissional. Quando ela estiver no maior palco da terra, a audiência abaixo dela conhecerá a maior felicidade.
+Voice:NpcVoice.xiyunna
+BattleVoice:BattleVoice.xiyunna</t>
+  </si>
+  <si>
+    <t>Like:特殊装备|忧伤
+Desc:Mathali nasceu em uma família mergulhada na guerra. Os membros da família podiam usar mana para fortalecer suas lâminas. Quando a guerra começou, a família de Mathali, que só se destacava em duelos, foi ignorada. Muitos membros da família tiveram que encontrar novas carreiras. Suas técnicas de luta únicas estavam à beira de serem perdidas para sempre. Mathali é o único jovem de sua geração que aprendeu a usar mana para lutar. Em seus ombros repousa não apenas o fardo de reviver a glória da família, mas também a missão de transmitir essas artes secretas.
+Voice:NpcVoice.hanjing
+BattleVoice:BattleVoice.hanjing</t>
+  </si>
+  <si>
+    <t>Like:绘画|忧伤
+WildMonsterKiller:1
+Robber:100
+Desc:Sanjay é um mago do outro lado do rio. Ele veio a esta terra para uma pesquisa macabra - como extrair poder arcano do caos da guerra, transformando dor e tragédia em sustento.
+Voice:NpcVoice.sajia
+BattleVoice:BattleVoice.sajia</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2151,6 +2154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2505,11 +2511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="G225" sqref="G225"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2545,3466 +2554,3466 @@
         <v>8</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>9</v>
+        <v>432</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="40.5">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="32" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="40.5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>23</v>
+        <v>435</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>26</v>
+        <v>436</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>32</v>
+        <v>438</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="27">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>37</v>
+        <v>440</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>37</v>
+        <v>440</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>46</v>
+        <v>442</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="67.5">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>49</v>
+        <v>443</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="27">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>54</v>
+        <v>444</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="27">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>59</v>
+        <v>445</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="175.5">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="54">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="27">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="D25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="27">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="22.5">
       <c r="A27" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="D27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27">
       <c r="A28" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>86</v>
+        <v>450</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="27">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="27">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="27">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="D34" s="5"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="27">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>102</v>
+        <v>455</v>
       </c>
       <c r="D35" s="5"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="27">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D36" s="5"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="27">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="27">
       <c r="A38" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="D38" s="5"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="D39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="27">
       <c r="A40" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>115</v>
+        <v>458</v>
       </c>
       <c r="D40" s="5"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="27">
       <c r="A41" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="D41" s="5"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>119</v>
+        <v>460</v>
       </c>
       <c r="D42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="121.5">
+    <row r="43" spans="1:6" ht="54">
       <c r="A43" s="5" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>121</v>
+        <v>461</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>123</v>
+        <v>93</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>582</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="54">
       <c r="A44" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>125</v>
+        <v>462</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>127</v>
+        <v>583</v>
       </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="67.5">
       <c r="A45" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>131</v>
+        <v>584</v>
       </c>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="27">
       <c r="A46" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="D46" s="5"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>135</v>
+        <v>465</v>
       </c>
       <c r="D47" s="5"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>138</v>
+        <v>466</v>
       </c>
       <c r="D48" s="5"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>141</v>
+        <v>467</v>
       </c>
       <c r="D49" s="5"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>143</v>
+        <v>468</v>
       </c>
       <c r="D50" s="5"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>145</v>
+        <v>469</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>147</v>
+        <v>470</v>
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>149</v>
+        <v>472</v>
       </c>
       <c r="D53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>151</v>
+        <v>471</v>
       </c>
       <c r="D54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>154</v>
+        <v>473</v>
       </c>
       <c r="D55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>157</v>
+        <v>474</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>160</v>
+        <v>475</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="27">
       <c r="A58" s="5" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>46</v>
+        <v>442</v>
       </c>
       <c r="D58" s="5"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="27">
       <c r="A59" s="5" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
       <c r="D59" s="5"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="27">
       <c r="A60" s="5" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="D60" s="5"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="27">
       <c r="A61" s="5" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>37</v>
+        <v>440</v>
       </c>
       <c r="D61" s="5"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="40.5">
       <c r="A62" s="5" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>169</v>
+        <v>477</v>
       </c>
       <c r="D62" s="5"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>171</v>
+        <v>478</v>
       </c>
       <c r="D63" s="5"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>173</v>
+        <v>479</v>
       </c>
       <c r="D64" s="5"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="D65" s="5"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>177</v>
+        <v>481</v>
       </c>
       <c r="D66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="5" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>179</v>
+        <v>482</v>
       </c>
       <c r="D67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:7" ht="40.5">
       <c r="A68" s="4" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="D68" s="12"/>
       <c r="F68" s="13" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27">
       <c r="A69" s="5" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>184</v>
+        <v>484</v>
       </c>
       <c r="D69" s="5"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="27">
       <c r="A70" s="5" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>187</v>
+        <v>485</v>
       </c>
       <c r="D70" s="5"/>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:7" ht="27">
       <c r="A71" s="5" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="D71" s="5"/>
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="14" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="D72" s="14"/>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="14" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="D73" s="14"/>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="14" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>196</v>
+        <v>487</v>
       </c>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:7" ht="27">
       <c r="A75" s="14" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="D75" s="15"/>
       <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="14" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>201</v>
+        <v>489</v>
       </c>
       <c r="D76" s="15"/>
       <c r="F76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>203</v>
+        <v>490</v>
       </c>
       <c r="D77" s="17"/>
       <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="16" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D78" s="17"/>
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="27">
       <c r="A79" s="16" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>208</v>
+        <v>491</v>
       </c>
       <c r="D79" s="17"/>
       <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="27">
       <c r="A80" s="16" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="D80" s="17"/>
       <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="16" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="D81" s="17"/>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="16" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="D82" s="17"/>
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="16" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>217</v>
+        <v>494</v>
       </c>
       <c r="D83" s="17"/>
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="16" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="D84" s="17"/>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="16" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="D85" s="17"/>
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="18" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="D86" s="19"/>
       <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="18" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>225</v>
+        <v>496</v>
       </c>
       <c r="D87" s="19"/>
       <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:7" ht="40.5">
       <c r="A88" s="18" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>227</v>
+        <v>497</v>
       </c>
       <c r="D88" s="19"/>
       <c r="F88" s="19" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="27">
       <c r="A89" s="18" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>230</v>
+        <v>498</v>
       </c>
       <c r="D89" s="19"/>
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="18" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>232</v>
+        <v>499</v>
       </c>
       <c r="D90" s="19"/>
       <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:7" ht="27">
       <c r="A91" s="18" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="D91" s="18"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="18" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="D92" s="19"/>
       <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="27">
       <c r="A93" s="18" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="D93" s="19"/>
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="18" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="D94" s="19"/>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="18" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="D95" s="19"/>
       <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="18" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="D96" s="19"/>
       <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="18" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>245</v>
+        <v>503</v>
       </c>
       <c r="D97" s="19"/>
       <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="27">
       <c r="A98" s="18" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="D98" s="19"/>
       <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6" ht="27">
       <c r="A99" s="18" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>49</v>
+        <v>443</v>
       </c>
       <c r="D99" s="19"/>
       <c r="F99" s="19"/>
     </row>
     <row r="100" spans="1:6" ht="27">
       <c r="A100" s="18" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>252</v>
+        <v>505</v>
       </c>
       <c r="D100" s="19"/>
       <c r="F100" s="19"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="18" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>254</v>
+        <v>506</v>
       </c>
       <c r="D101" s="19"/>
       <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:6" ht="22.5">
       <c r="A102" s="20" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="20" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>259</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="20" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>259</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="22.5">
       <c r="A105" s="20" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="20" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="27">
       <c r="A107" s="5" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>265</v>
+        <v>509</v>
       </c>
       <c r="D107" s="5"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="D108" s="5"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="D109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>271</v>
+        <v>510</v>
       </c>
       <c r="D110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>273</v>
+        <v>511</v>
       </c>
       <c r="D111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="D112" s="5"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" ht="27">
       <c r="A113" s="5" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>271</v>
+        <v>510</v>
       </c>
       <c r="D113" s="5"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>278</v>
+        <v>513</v>
       </c>
       <c r="D114" s="5"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="20" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="21" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>282</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="22" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>285</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="27">
       <c r="A118" s="14" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>287</v>
+        <v>516</v>
       </c>
       <c r="D118" s="14"/>
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="D119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="14" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="D120" s="14"/>
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="14" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="D121" s="14"/>
       <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="14" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="D122" s="14"/>
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="D123" s="14"/>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="D124" s="14"/>
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>300</v>
+        <v>519</v>
       </c>
       <c r="D125" s="5"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>302</v>
+        <v>520</v>
       </c>
       <c r="D126" s="5"/>
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>304</v>
+        <v>521</v>
       </c>
       <c r="D127" s="5"/>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>306</v>
+        <v>522</v>
       </c>
       <c r="D128" s="5"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="D129" s="5"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="22.5">
       <c r="A130" s="22" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>285</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>311</v>
+        <v>524</v>
       </c>
       <c r="D131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="D132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="D133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="D134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="D135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>321</v>
+        <v>526</v>
       </c>
       <c r="D136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="D137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="D138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
       <c r="D139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>331</v>
+        <v>528</v>
       </c>
       <c r="D141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" ht="27">
       <c r="A142" s="1" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>331</v>
+        <v>528</v>
       </c>
       <c r="D142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="27">
       <c r="A143" s="23" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>334</v>
+        <v>529</v>
       </c>
       <c r="D143" s="24"/>
       <c r="F143" s="24"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="23" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>336</v>
+        <v>530</v>
       </c>
       <c r="D144" s="24"/>
       <c r="F144" s="24"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="23" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="D145" s="24"/>
       <c r="F145" s="24"/>
     </row>
     <row r="146" spans="1:6" ht="27">
       <c r="A146" s="23" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="D146" s="24"/>
       <c r="F146" s="24"/>
     </row>
     <row r="147" spans="1:6" ht="27">
       <c r="A147" s="23" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>342</v>
+        <v>532</v>
       </c>
       <c r="D147" s="24"/>
       <c r="F147" s="24"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="23" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="D148" s="24"/>
       <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" ht="27">
       <c r="A149" s="23" t="s">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="D149" s="24"/>
       <c r="F149" s="24"/>
     </row>
     <row r="150" spans="1:6" ht="27">
       <c r="A150" s="23" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="D150" s="24"/>
       <c r="F150" s="24"/>
     </row>
     <row r="151" spans="1:6" ht="27">
       <c r="A151" s="23" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="D151" s="24"/>
       <c r="F151" s="24"/>
     </row>
     <row r="152" spans="1:6" ht="27">
       <c r="A152" s="23" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="D152" s="24"/>
       <c r="F152" s="24"/>
     </row>
     <row r="153" spans="1:6" ht="27">
       <c r="A153" s="23" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="D153" s="24"/>
       <c r="F153" s="24"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="23" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>353</v>
+        <v>534</v>
       </c>
       <c r="D154" s="24"/>
       <c r="F154" s="24"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="23" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="D155" s="24"/>
       <c r="F155" s="24"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="5" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="D156" s="5"/>
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="25" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="D157" s="25"/>
       <c r="F157" s="25"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="25" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="D158" s="25"/>
       <c r="F158" s="25"/>
     </row>
     <row r="159" spans="1:6" ht="27">
       <c r="A159" s="25" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>363</v>
+        <v>536</v>
       </c>
       <c r="D159" s="25"/>
       <c r="F159" s="25"/>
     </row>
     <row r="160" spans="1:6" ht="27">
       <c r="A160" s="25" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="D160" s="25"/>
       <c r="F160" s="25"/>
     </row>
     <row r="161" spans="1:7" ht="27">
       <c r="A161" s="25" t="s">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>366</v>
+        <v>259</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>367</v>
+        <v>537</v>
       </c>
       <c r="D161" s="25"/>
       <c r="F161" s="25"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="25" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>369</v>
+        <v>538</v>
       </c>
       <c r="D162" s="25"/>
       <c r="F162" s="25"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="25" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>369</v>
+        <v>538</v>
       </c>
       <c r="D163" s="25"/>
       <c r="F163" s="25"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="25" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="D164" s="25"/>
       <c r="F164" s="25"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="25" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>374</v>
+        <v>539</v>
       </c>
       <c r="D165" s="25"/>
       <c r="F165" s="25"/>
     </row>
     <row r="166" spans="1:7" ht="81">
       <c r="A166" s="5" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>379</v>
+        <v>585</v>
       </c>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:7" ht="94.5">
       <c r="A167" s="5" t="s">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:7" ht="175.5">
       <c r="A168" s="5" t="s">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>385</v>
+        <v>587</v>
       </c>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:7" ht="175.5">
       <c r="A169" s="5" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>385</v>
+        <v>587</v>
       </c>
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:7" ht="27">
       <c r="A170" s="5" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="D170" s="5"/>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:7" ht="27">
       <c r="A171" s="5" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="D171" s="5"/>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:7" ht="175.5">
       <c r="A172" s="5" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>385</v>
+        <v>587</v>
       </c>
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:7" ht="409.5">
       <c r="A173" s="26" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>394</v>
+        <v>278</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="D173" s="27"/>
       <c r="F173" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G173" s="32" t="s">
-        <v>397</v>
+        <v>280</v>
+      </c>
+      <c r="G173" s="33" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="27">
       <c r="A174" s="5" t="s">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="D174" s="5"/>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:7" ht="27">
       <c r="A175" s="5" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>403</v>
+        <v>544</v>
       </c>
       <c r="D175" s="5"/>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="5" t="s">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="D176" s="5"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:7" ht="27">
       <c r="A177" s="5" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="D177" s="5"/>
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:7" ht="27">
       <c r="A178" s="5" t="s">
-        <v>410</v>
+        <v>289</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>412</v>
+        <v>546</v>
       </c>
       <c r="D178" s="5"/>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:7" ht="27">
       <c r="A179" s="5" t="s">
-        <v>413</v>
+        <v>291</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="D179" s="5"/>
       <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:7" ht="27">
       <c r="A180" s="1" t="s">
-        <v>414</v>
+        <v>292</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>403</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="27">
       <c r="A181" s="5" t="s">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="D181" s="5"/>
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:7" ht="27">
       <c r="A182" s="5" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>412</v>
+        <v>546</v>
       </c>
       <c r="D182" s="5"/>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
-        <v>417</v>
+        <v>295</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>419</v>
+        <v>297</v>
       </c>
       <c r="D183" s="27"/>
       <c r="F183" s="27"/>
     </row>
     <row r="184" spans="1:7" ht="94.5">
       <c r="A184" s="26" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>419</v>
+        <v>297</v>
       </c>
       <c r="D184" s="27"/>
       <c r="F184" s="27" t="s">
-        <v>421</v>
+        <v>299</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>421</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="5" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
       <c r="D185" s="5"/>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="5" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="D186" s="5"/>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="5" t="s">
-        <v>426</v>
+        <v>303</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>426</v>
+        <v>303</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>427</v>
+        <v>548</v>
       </c>
       <c r="D187" s="5"/>
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="5" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="D188" s="5"/>
       <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="5" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>431</v>
+        <v>550</v>
       </c>
       <c r="D189" s="5"/>
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:7" ht="27">
       <c r="A190" s="5" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="D190" s="5"/>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:7" ht="27">
       <c r="A191" s="18" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>435</v>
+        <v>308</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="D191" s="19"/>
       <c r="F191" s="19"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="18" t="s">
-        <v>437</v>
+        <v>309</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>438</v>
+        <v>310</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>439</v>
+        <v>553</v>
       </c>
       <c r="D192" s="19"/>
       <c r="F192" s="19"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="18" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="D193" s="19"/>
       <c r="F193" s="19"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="18" t="s">
-        <v>443</v>
+        <v>314</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>445</v>
+        <v>554</v>
       </c>
       <c r="D194" s="19"/>
       <c r="F194" s="19"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="5" t="s">
-        <v>446</v>
+        <v>316</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>446</v>
+        <v>316</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>447</v>
+        <v>555</v>
       </c>
       <c r="D195" s="5"/>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="27">
       <c r="A196" s="5" t="s">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>149</v>
+        <v>472</v>
       </c>
       <c r="D196" s="5"/>
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="25" t="s">
-        <v>449</v>
+        <v>318</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>449</v>
+        <v>318</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>450</v>
+        <v>319</v>
       </c>
       <c r="D197" s="25"/>
       <c r="F197" s="25"/>
     </row>
     <row r="198" spans="1:6" ht="27">
       <c r="A198" s="14" t="s">
-        <v>451</v>
+        <v>320</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>451</v>
+        <v>320</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>452</v>
+        <v>556</v>
       </c>
       <c r="D198" s="14"/>
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6" ht="27">
       <c r="A199" s="14" t="s">
-        <v>453</v>
+        <v>321</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>453</v>
+        <v>321</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="D199" s="14"/>
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="D200" s="14"/>
       <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="5" t="s">
-        <v>457</v>
+        <v>323</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>457</v>
+        <v>323</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>458</v>
+        <v>324</v>
       </c>
       <c r="D201" s="5"/>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="5" t="s">
-        <v>459</v>
+        <v>325</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>459</v>
+        <v>325</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
       <c r="D202" s="5"/>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>461</v>
+        <v>327</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>461</v>
+        <v>327</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>462</v>
+        <v>559</v>
       </c>
       <c r="D203" s="14"/>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6" ht="27">
       <c r="A204" s="1" t="s">
-        <v>463</v>
+        <v>328</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>464</v>
+        <v>329</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="D204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" ht="27">
       <c r="A205" s="1" t="s">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>300</v>
+        <v>519</v>
       </c>
       <c r="D205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="27">
       <c r="A206" s="1" t="s">
-        <v>467</v>
+        <v>331</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>302</v>
+        <v>520</v>
       </c>
       <c r="D206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" ht="27">
       <c r="A207" s="14" t="s">
-        <v>468</v>
+        <v>332</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="D207" s="14"/>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6" ht="27">
       <c r="A208" s="14" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>473</v>
+        <v>336</v>
       </c>
       <c r="D208" s="14"/>
       <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="28" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="D209" s="2"/>
       <c r="F209" s="29"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="28" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="D210" s="2"/>
       <c r="F210" s="29"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="28" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>481</v>
+        <v>344</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>482</v>
+        <v>345</v>
       </c>
       <c r="D211" s="2"/>
       <c r="F211" s="29"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="28" t="s">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="D212" s="2"/>
       <c r="F212" s="29"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="5" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>486</v>
+        <v>348</v>
       </c>
       <c r="D213" s="5"/>
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="5" t="s">
-        <v>487</v>
+        <v>349</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>487</v>
+        <v>349</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="D214" s="5"/>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="5" t="s">
-        <v>489</v>
+        <v>351</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>489</v>
+        <v>351</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>490</v>
+        <v>352</v>
       </c>
       <c r="D215" s="5"/>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:7" ht="409.5">
       <c r="A216" s="26" t="s">
-        <v>491</v>
+        <v>353</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>491</v>
+        <v>353</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>492</v>
+        <v>354</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E216" s="32" t="s">
-        <v>494</v>
+        <v>355</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>588</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="G216" s="32" t="s">
-        <v>496</v>
+        <v>356</v>
+      </c>
+      <c r="G216" s="33" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="54">
       <c r="A217" s="5" t="s">
-        <v>497</v>
+        <v>357</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>160</v>
+        <v>475</v>
       </c>
       <c r="D217" s="5"/>
       <c r="F217" s="5" t="s">
-        <v>499</v>
+        <v>359</v>
       </c>
       <c r="G217" s="32" t="s">
-        <v>499</v>
+        <v>359</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="27">
       <c r="A218" s="5" t="s">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>501</v>
+        <v>361</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="D218" s="5"/>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:7" ht="54">
       <c r="A219" s="5" t="s">
-        <v>503</v>
+        <v>362</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>503</v>
+        <v>362</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="D219" s="5"/>
       <c r="F219" s="5" t="s">
-        <v>505</v>
+        <v>363</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>505</v>
+        <v>363</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="409.5">
       <c r="A220" s="26" t="s">
-        <v>506</v>
+        <v>364</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>507</v>
+        <v>365</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>508</v>
+        <v>366</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="E220" s="32" t="s">
-        <v>510</v>
+        <v>367</v>
+      </c>
+      <c r="E220" s="33" t="s">
+        <v>589</v>
       </c>
       <c r="F220" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="G220" s="32" t="s">
-        <v>512</v>
+        <v>368</v>
+      </c>
+      <c r="G220" s="33" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="D221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>515</v>
+        <v>371</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>516</v>
+        <v>372</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="D222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>518</v>
+        <v>373</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>518</v>
+        <v>373</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:7" ht="27">
       <c r="A224" s="1" t="s">
-        <v>520</v>
+        <v>374</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>520</v>
+        <v>374</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="D224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="409.5">
       <c r="A225" s="26" t="s">
-        <v>522</v>
+        <v>375</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>523</v>
+        <v>376</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="E225" s="32" t="s">
-        <v>526</v>
+        <v>378</v>
+      </c>
+      <c r="E225" s="33" t="s">
+        <v>590</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="G225" s="32" t="s">
-        <v>528</v>
+        <v>379</v>
+      </c>
+      <c r="G225" s="33" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="5" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="D226" s="5"/>
       <c r="F226" s="5"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="5" t="s">
-        <v>530</v>
+        <v>381</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>530</v>
+        <v>381</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>531</v>
+        <v>382</v>
       </c>
       <c r="D227" s="5"/>
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="5" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>533</v>
+        <v>384</v>
       </c>
       <c r="D228" s="5"/>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="5" t="s">
-        <v>534</v>
+        <v>385</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D229" s="5"/>
       <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="5" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>538</v>
+        <v>388</v>
       </c>
       <c r="D230" s="5"/>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:7" ht="27">
       <c r="A231" s="5" t="s">
-        <v>539</v>
+        <v>389</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>539</v>
+        <v>389</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="D231" s="5"/>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="5" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D232" s="5"/>
       <c r="F232" s="5"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="5" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>544</v>
+        <v>392</v>
       </c>
       <c r="D233" s="5"/>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:7" ht="27">
       <c r="A234" s="5" t="s">
-        <v>545</v>
+        <v>393</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>545</v>
+        <v>393</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D234" s="5"/>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="5" t="s">
-        <v>547</v>
+        <v>394</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>547</v>
+        <v>394</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>548</v>
+        <v>395</v>
       </c>
       <c r="D235" s="5"/>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="D236" s="5"/>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:7" ht="27">
       <c r="A237" s="1" t="s">
-        <v>551</v>
+        <v>397</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>551</v>
+        <v>397</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>552</v>
+        <v>398</v>
       </c>
       <c r="D237" s="5"/>
       <c r="F237" s="5" t="s">
-        <v>553</v>
+        <v>399</v>
       </c>
       <c r="G237" s="32" t="s">
-        <v>553</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="27">
       <c r="A238" s="1" t="s">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="D238" s="5"/>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:7" ht="27">
       <c r="A239" s="1" t="s">
-        <v>555</v>
+        <v>401</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>555</v>
+        <v>401</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="D239" s="5"/>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>557</v>
+        <v>402</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>557</v>
+        <v>402</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>558</v>
+        <v>403</v>
       </c>
       <c r="D240" s="5"/>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>559</v>
+        <v>404</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>559</v>
+        <v>404</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="D241" s="5"/>
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:7" ht="27">
       <c r="A242" s="5" t="s">
-        <v>561</v>
+        <v>405</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>562</v>
+        <v>406</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D242" s="5"/>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="5" t="s">
-        <v>564</v>
+        <v>407</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>564</v>
+        <v>407</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>565</v>
+        <v>408</v>
       </c>
       <c r="D243" s="5"/>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:7" ht="40.5">
       <c r="A244" s="5" t="s">
-        <v>566</v>
+        <v>409</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>566</v>
+        <v>409</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>567</v>
+        <v>410</v>
       </c>
       <c r="D244" s="5"/>
       <c r="F244" s="5" t="s">
-        <v>568</v>
+        <v>411</v>
       </c>
       <c r="G244" s="32" t="s">
-        <v>568</v>
+        <v>411</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>569</v>
+        <v>412</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>569</v>
+        <v>412</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>570</v>
+        <v>413</v>
       </c>
       <c r="D245" s="5"/>
       <c r="F245" s="5"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>571</v>
+        <v>414</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>571</v>
+        <v>414</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>572</v>
+        <v>415</v>
       </c>
       <c r="D246" s="5"/>
       <c r="F246" s="5"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="5" t="s">
-        <v>573</v>
+        <v>416</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>573</v>
+        <v>416</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D247" s="5"/>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:7" ht="270">
       <c r="A249" s="5" t="s">
-        <v>577</v>
+        <v>418</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>577</v>
+        <v>418</v>
       </c>
       <c r="C249" s="32" t="s">
         <v>578</v>
       </c>
       <c r="D249" s="5"/>
       <c r="F249" s="2" t="s">
-        <v>579</v>
+        <v>419</v>
       </c>
       <c r="G249" s="32" t="s">
-        <v>579</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="270">
       <c r="A250" s="5" t="s">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D250" s="5"/>
       <c r="F250" s="2" t="s">
-        <v>582</v>
+        <v>421</v>
       </c>
       <c r="G250" s="32" t="s">
-        <v>582</v>
+        <v>421</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="243">
       <c r="A251" s="5" t="s">
-        <v>583</v>
+        <v>422</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>583</v>
+        <v>422</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D251" s="5"/>
       <c r="F251" s="2" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
       <c r="G251" s="32" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="243">
       <c r="A252" s="5" t="s">
-        <v>586</v>
+        <v>424</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>586</v>
+        <v>424</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>587</v>
+        <v>425</v>
       </c>
       <c r="D252" s="5"/>
       <c r="F252" s="2" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
       <c r="G252" s="32" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="121.5">
       <c r="A253" s="5" t="s">
-        <v>588</v>
+        <v>426</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D253" s="5"/>
       <c r="F253" s="5" t="s">
-        <v>589</v>
+        <v>427</v>
       </c>
       <c r="G253" s="32" t="s">
-        <v>589</v>
+        <v>427</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="135">
       <c r="A254" s="5" t="s">
-        <v>590</v>
+        <v>428</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>37</v>
+        <v>581</v>
       </c>
       <c r="D254" s="5"/>
       <c r="F254" s="5" t="s">
-        <v>591</v>
+        <v>429</v>
       </c>
       <c r="G254" s="32" t="s">
-        <v>591</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="135">
       <c r="A255" s="5" t="s">
-        <v>592</v>
+        <v>430</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="D255" s="5"/>
       <c r="F255" s="5" t="s">
-        <v>593</v>
+        <v>431</v>
       </c>
       <c r="G255" s="32" t="s">
-        <v>593</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
